--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\卒業制作連絡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -485,6 +485,178 @@
   </si>
   <si>
     <t>リンクボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイントで
+デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1107メニューチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1107 CSSチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1107 ページリンク、
+レイアウト確認</t>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1107　
+メニュー調整</t>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイント制作</t>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイントで
+デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクページ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ紛失
+再製作</t>
+    <rPh sb="3" eb="5">
+      <t>フンシツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成
+リンクページ振興確認</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成
+リンクボタン</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページの
+写真配置</t>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクエージ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真配置
+リンクページ確認</t>
+    <rPh sb="0" eb="4">
+      <t>シャシンハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクページ確認
+配置、デザイン</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクページ整理
+写真リンク</t>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイメージ
+中ページ写真
+高さ調整</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ
+イメージ高さ</t>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +730,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -573,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +790,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,11 +1141,17 @@
       <c r="E2">
         <v>1024</v>
       </c>
+      <c r="F2">
+        <v>1031</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
       <c r="O2">
         <v>1024</v>
+      </c>
+      <c r="P2">
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -979,15 +1196,17 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>17318</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1005,7 +1224,9 @@
       <c r="O4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1033,15 +1254,15 @@
       <c r="K5" s="10">
         <v>20</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <v>17752</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1051,15 +1272,15 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>17542</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1107,15 +1328,17 @@
       <c r="K7" s="10">
         <v>22</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>17797</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -1145,15 +1368,17 @@
       <c r="K8" s="10">
         <v>23</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>17811</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -1181,15 +1406,15 @@
       <c r="K9" s="10">
         <v>24</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <v>17813</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -1205,9 +1430,11 @@
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1223,7 +1450,9 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -1239,9 +1468,11 @@
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1289,15 +1520,15 @@
       <c r="K12" s="10">
         <v>27</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="13">
         <v>17883</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -1307,31 +1538,33 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>17688</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="18"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="10">
         <v>28</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="13">
         <v>17900</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -1353,7 +1586,9 @@
       <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1361,15 +1596,15 @@
       <c r="K14" s="10">
         <v>29</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <v>17913</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -1379,15 +1614,17 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>17698</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1395,15 +1632,15 @@
       <c r="K15" s="10">
         <v>30</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <v>17916</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -1419,9 +1656,11 @@
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1429,15 +1668,15 @@
       <c r="K16" s="10">
         <v>31</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="13">
         <v>17937</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -1447,15 +1686,17 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>17728</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1463,15 +1704,15 @@
       <c r="K17" s="10">
         <v>32</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="13">
         <v>17942</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -1493,7 +1734,9 @@
       <c r="E18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1511,7 +1754,9 @@
       <c r="O18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -1521,15 +1766,17 @@
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>17738</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1537,15 +1784,15 @@
       <c r="K19" s="10">
         <v>34</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="13">
         <v>17994</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -1567,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,11 +1845,17 @@
       <c r="E2">
         <v>1024</v>
       </c>
+      <c r="F2">
+        <v>1031</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
       <c r="O2">
         <v>1024</v>
+      </c>
+      <c r="P2">
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1619,7 +1872,9 @@
         <v>70</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1647,31 +1902,33 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>17510</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="18"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="10">
         <v>18</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="13">
         <v>17774</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -1701,15 +1958,15 @@
       <c r="K5" s="10">
         <v>19</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <v>17800</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -1719,15 +1976,17 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>17520</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1735,15 +1994,15 @@
       <c r="K6" s="10">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <v>17801</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -1763,7 +2022,9 @@
       <c r="E7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1791,15 +2052,15 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>17552</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1807,15 +2068,15 @@
       <c r="K8" s="10">
         <v>22</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <v>17834</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1843,15 +2104,15 @@
       <c r="K9" s="10">
         <v>23</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <v>17851</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1917,16 +2178,18 @@
       <c r="K11" s="10">
         <v>25</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>17865</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="18"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1935,15 +2198,15 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>17687</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1951,15 +2214,15 @@
       <c r="K12" s="10">
         <v>26</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="13">
         <v>17880</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -1969,15 +2232,17 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>17719</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1985,15 +2250,15 @@
       <c r="K13" s="10">
         <v>27</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="13">
         <v>17903</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -2021,15 +2286,15 @@
       <c r="K14" s="10">
         <v>29</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <v>17928</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2057,15 +2322,15 @@
       <c r="K15" s="10">
         <v>30</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <v>17953</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2075,15 +2340,17 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>17746</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2111,15 +2378,15 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>17753</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2137,7 +2404,9 @@
         <v>75</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2147,15 +2416,15 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>17754</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -659,12 +659,102 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">トップページデザインとリンクボタン
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクページ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成
+各ページタイトル
+と説明文</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトのリンクの流れ
+フォルダ整理</t>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真設定</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真配置
+CSS設定</t>
+    <rPh sb="0" eb="4">
+      <t>シャシンハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前制作サイトの
+デザインなのでアレンジする</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイント作成
+リンクボタンを
+各ページに設定</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前制作サイトの
+デザインなのでアレンジする</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +791,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -751,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +920,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1406,15 +1507,17 @@
       <c r="K9" s="10">
         <v>24</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="4">
         <v>17813</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -1528,7 +1631,7 @@
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -1556,15 +1659,17 @@
       <c r="K13" s="10">
         <v>28</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="4">
         <v>17900</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -1668,15 +1773,17 @@
       <c r="K16" s="10">
         <v>31</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="4">
         <v>17937</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -1704,15 +1811,17 @@
       <c r="K17" s="10">
         <v>32</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="4">
         <v>17942</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -1784,15 +1893,17 @@
       <c r="K19" s="10">
         <v>34</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="4">
         <v>17994</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -1814,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,15 +2031,17 @@
       <c r="K4" s="10">
         <v>18</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="4">
         <v>17774</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -2052,15 +2165,17 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="4">
         <v>17552</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2198,15 +2313,17 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="4">
         <v>17687</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2378,15 +2495,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="4">
         <v>17753</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2416,15 +2535,17 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="4">
         <v>17754</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -665,6 +665,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>各ページ作成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>リンクページ作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -747,6 +757,57 @@
   <si>
     <t>以前制作サイトの
 デザインなのでアレンジする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージは各ページ
+には不必要</t>
+    <rPh sb="12" eb="15">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真リンク切れ</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトタイトルの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページに
+サイトのタイトル</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイント制作
+リンクボタン作成</t>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1668,7 +1729,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -1782,7 +1843,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -1820,7 +1881,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -1902,7 +1963,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -1925,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2101,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -2071,15 +2132,17 @@
       <c r="K5" s="10">
         <v>19</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="4">
         <v>17800</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2107,15 +2170,17 @@
       <c r="K6" s="10">
         <v>20</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="4">
         <v>17801</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -2174,7 +2239,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2183,15 +2248,17 @@
       <c r="K8" s="10">
         <v>22</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="4">
         <v>17834</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -2219,16 +2286,18 @@
       <c r="K9" s="10">
         <v>23</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="4">
         <v>17851</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="7"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="18"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -2322,7 +2391,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2331,15 +2400,17 @@
       <c r="K12" s="10">
         <v>26</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="4">
         <v>17880</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -2403,15 +2474,17 @@
       <c r="K14" s="10">
         <v>29</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="4">
         <v>17928</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2439,15 +2512,17 @@
       <c r="K15" s="10">
         <v>30</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="4">
         <v>17953</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2504,7 +2579,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2544,7 +2619,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6810" activeTab="1"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="見出しの調整">AM!$N$3:$T$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -807,6 +802,55 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真上にマウスを移動すると料理名を表示させたい
+title属性を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;内に&lt;div&gt;を使用したい</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要確認</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -910,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,7 +1313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1995,10 +2045,14 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="10" width="14.125" customWidth="1"/>
+    <col min="4" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
+    <col min="8" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="20" width="14.125" customWidth="1"/>
+    <col min="13" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="25" customWidth="1"/>
+    <col min="18" max="20" width="14.125" customWidth="1"/>
     <col min="21" max="26" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2006,7 +2060,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
@@ -2020,6 +2074,9 @@
       <c r="F2">
         <v>1031</v>
       </c>
+      <c r="G2" s="25">
+        <v>1105</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
@@ -2028,6 +2085,9 @@
       </c>
       <c r="P2">
         <v>1031</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2047,7 +2107,7 @@
       <c r="F3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -2065,12 +2125,12 @@
         <v>86</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2085,7 +2145,9 @@
       <c r="F4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2103,7 +2165,9 @@
       <c r="P4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -2125,7 +2189,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2143,7 +2207,9 @@
       <c r="P5" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -2163,7 +2229,7 @@
       <c r="F6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2181,7 +2247,7 @@
       <c r="P6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -2203,7 +2269,7 @@
       <c r="F7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2221,7 +2287,7 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -2241,7 +2307,7 @@
       <c r="F8" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2259,7 +2325,7 @@
       <c r="P8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -2279,7 +2345,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2297,7 +2363,7 @@
       <c r="P9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -2317,7 +2383,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -2335,7 +2401,7 @@
         <v>87</v>
       </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -2355,7 +2421,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2373,7 +2439,7 @@
       <c r="P11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2393,7 +2459,7 @@
       <c r="F12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2411,7 +2477,7 @@
       <c r="P12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2431,7 +2497,7 @@
       <c r="F13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -2447,7 +2513,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2467,7 +2533,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2485,7 +2551,7 @@
       <c r="P14" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2505,7 +2571,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2523,7 +2589,7 @@
       <c r="P15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -2543,7 +2609,7 @@
       <c r="F16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2561,7 +2627,7 @@
         <v>89</v>
       </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2581,7 +2647,7 @@
       <c r="F17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2601,7 +2667,9 @@
       <c r="P17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2621,7 +2689,7 @@
       <c r="F18" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -142,10 +147,6 @@
   </si>
   <si>
     <t>レク　ナート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スマン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -589,13 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンクエージ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>写真配置
 リンクページ確認</t>
     <rPh sb="0" eb="4">
@@ -806,35 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真上にマウスを移動すると料理名を表示させたい
-title属性を使用</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;ul&gt;内に&lt;div&gt;を使用したい</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
@@ -851,6 +816,225 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイント
+確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページイメージ
+サブページレイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ写真の整理
+配置レイアウトの確認</t>
+    <rPh sb="4" eb="6">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ作成
+リンクボタン設定</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来週初めに確認</t>
+    <rPh sb="0" eb="3">
+      <t>ライシュウハジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンリンク確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ調整
+写真サイスなど</t>
+    <rPh sb="6" eb="8">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boxレイアウト修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ、
+リンクボタン整理</t>
+    <rPh sb="14" eb="16">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlを作成する</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページのレイアウトデザイン統一</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル整理</t>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンカータグ設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページとサブページのリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページの
+ヘッダー配置</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタンの配置を調整</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページから
+サブページ作成</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページに
+りンクボタン</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アチャリア　スマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページ
+リンクボタンと
+タイトルの設置</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタンとタイトルの統一</t>
+    <rPh sb="12" eb="14">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssを別ファイルで</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真上にマウスを移動すると料理名を表示させたい
+title属性を使用
+top-page配置調整</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>ハイチチョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -954,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1219,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1323,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="K5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,6 +1558,9 @@
       <c r="F2">
         <v>1031</v>
       </c>
+      <c r="G2">
+        <v>1107</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
@@ -1364,6 +1569,9 @@
       </c>
       <c r="P2">
         <v>1031</v>
+      </c>
+      <c r="Q2">
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1377,11 +1585,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1392,10 +1602,10 @@
         <v>17742</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -1417,9 +1627,11 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1430,14 +1642,14 @@
         <v>17743</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -1452,30 +1664,34 @@
         <v>17511</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10">
         <v>20</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="4">
         <v>17752</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="8"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -1507,13 +1723,13 @@
         <v>17</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="31"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -1530,7 +1746,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1549,9 +1765,9 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="Q7" s="31"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1564,13 +1780,13 @@
         <v>17664</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1589,9 +1805,9 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="Q8" s="31"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -1608,7 +1824,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1627,9 +1843,11 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -1647,7 +1865,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1665,9 +1883,9 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="Q10" s="20"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -1685,9 +1903,11 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1701,11 +1921,13 @@
         <v>22</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -1721,10 +1943,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1741,9 +1963,9 @@
         <v>27</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="8"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -1761,7 +1983,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="7"/>
@@ -1777,11 +1999,13 @@
         <v>23</v>
       </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="8"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>128</v>
+      </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -1797,31 +2021,37 @@
         <v>10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="10">
         <v>29</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="4">
         <v>17913</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="8"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31" t="s">
+        <v>127</v>
+      </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -1839,7 +2069,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1855,9 +2085,9 @@
         <v>25</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="8"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="27"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -1875,9 +2105,11 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1888,14 +2120,14 @@
         <v>17937</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="8"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="27"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -1913,7 +2145,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1929,11 +2161,11 @@
         <v>1</v>
       </c>
       <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="8"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="28"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -1949,15 +2181,17 @@
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1971,13 +2205,15 @@
         <v>0</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="8"/>
+      <c r="O18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
@@ -1995,9 +2231,11 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2008,14 +2246,14 @@
         <v>17994</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="8"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="28"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -2036,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2101,11 +2339,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -2118,11 +2356,11 @@
         <v>17771</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="11"/>
@@ -2138,15 +2376,15 @@
         <v>17510</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2158,15 +2396,15 @@
         <v>17774</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -2180,16 +2418,18 @@
         <v>17513</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2200,15 +2440,15 @@
         <v>17800</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2222,12 +2462,12 @@
         <v>17520</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="7"/>
@@ -2240,14 +2480,16 @@
         <v>17801</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -2260,14 +2502,14 @@
         <v>17551</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="7"/>
@@ -2280,10 +2522,10 @@
         <v>17810</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -2300,14 +2542,16 @@
         <v>17552</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2318,12 +2562,12 @@
         <v>17834</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="7"/>
@@ -2338,10 +2582,10 @@
         <v>17567</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2361,7 +2605,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="7"/>
@@ -2376,10 +2620,10 @@
         <v>17575</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2394,11 +2638,11 @@
         <v>17862</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="11"/>
@@ -2414,10 +2658,10 @@
         <v>17614</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2432,12 +2676,12 @@
         <v>17865</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="7"/>
@@ -2452,12 +2696,12 @@
         <v>17687</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="7"/>
@@ -2470,12 +2714,12 @@
         <v>17880</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="7"/>
@@ -2490,12 +2734,12 @@
         <v>17719</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="7"/>
@@ -2508,7 +2752,7 @@
         <v>17903</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -2526,14 +2770,16 @@
         <v>17725</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2544,14 +2790,16 @@
         <v>17928</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2564,10 +2812,10 @@
         <v>17741</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2582,12 +2830,12 @@
         <v>17953</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="7"/>
@@ -2602,12 +2850,12 @@
         <v>17746</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
@@ -2620,14 +2868,16 @@
         <v>17965</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2640,14 +2890,16 @@
         <v>17753</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2658,17 +2910,17 @@
         <v>17985</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2682,12 +2934,12 @@
         <v>17754</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="153">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -534,11 +534,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パワーポイントで
-デザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リンクページ作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -800,16 +795,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;ul&gt;内に&lt;div&gt;を使用したい</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要確認</t>
     <rPh sb="0" eb="1">
       <t>ヨウ</t>
@@ -999,13 +984,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cssを別ファイルで</t>
-    <rPh sb="4" eb="5">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>写真上にマウスを移動すると料理名を表示させたい
 title属性を使用
 top-page配置調整</t>
@@ -1035,6 +1013,65 @@
     </rPh>
     <rPh sb="43" eb="47">
       <t>ハイチチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background-image
+設定</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssを別ファイルで
+background配置</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;内に&lt;div&gt;を使用したい＜？＞</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真素材取集
+メニュー部分</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17800チョンジャンの
+データをコピー
+している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlを進める</t>
+    <rPh sb="5" eb="6">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1590,7 +1627,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1627,10 +1664,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1672,7 +1709,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1690,7 +1727,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1765,7 +1802,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="31"/>
       <c r="R7" s="8"/>
@@ -1805,7 +1842,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="31"/>
       <c r="R8" s="8"/>
@@ -1843,10 +1880,10 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -1906,7 +1943,7 @@
         <v>93</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1926,7 +1963,7 @@
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -1983,7 +2020,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="7"/>
@@ -2001,10 +2038,10 @@
       <c r="N13" s="22"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -2030,10 +2067,10 @@
         <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2050,7 +2087,7 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -2108,7 +2145,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2125,7 +2162,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="30"/>
       <c r="P16" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="8"/>
@@ -2145,7 +2182,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2163,7 +2200,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="30"/>
       <c r="P17" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="8"/>
@@ -2212,7 +2249,7 @@
         <v>83</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -2234,7 +2271,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2251,7 +2288,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="8"/>
@@ -2274,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2343,7 +2380,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -2376,15 +2413,15 @@
         <v>17510</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2401,10 +2438,10 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -2428,7 +2465,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2445,10 +2482,10 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2467,7 +2504,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="7"/>
@@ -2485,7 +2522,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>148</v>
@@ -2509,9 +2546,11 @@
         <v>89</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2547,10 +2586,10 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2567,9 +2606,11 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -2605,7 +2646,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="7"/>
@@ -2681,9 +2722,11 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2701,9 +2744,11 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2719,7 +2764,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="7"/>
@@ -2739,7 +2784,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="7"/>
@@ -2778,7 +2823,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2795,10 +2840,10 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2819,7 +2864,9 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2835,7 +2882,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="7"/>
@@ -2876,7 +2923,7 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -2895,10 +2942,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2917,10 +2964,10 @@
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2939,7 +2986,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="7155" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1072,6 +1067,51 @@
     <t>htmlを進める</t>
     <rPh sb="5" eb="6">
       <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶋田</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成
+要確認</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPのファイルが壊れたかも？
+植田先生にバックアップファイルを確認してもらう</t>
+    <rPh sb="8" eb="9">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウエダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1175,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,9 +1292,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1552,7 +1589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1726,7 +1763,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="26" t="s">
         <v>131</v>
       </c>
       <c r="R5" s="8"/>
@@ -1766,7 +1803,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -1804,7 +1841,7 @@
       <c r="P7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1844,7 +1881,7 @@
       <c r="P8" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -1882,7 +1919,7 @@
       <c r="P9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="30" t="s">
         <v>138</v>
       </c>
       <c r="R9" s="8"/>
@@ -1958,11 +1995,11 @@
         <v>22</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="27" t="s">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26" t="s">
         <v>136</v>
       </c>
       <c r="R11" s="8"/>
@@ -2000,9 +2037,9 @@
         <v>27</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -2036,11 +2073,11 @@
         <v>23</v>
       </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30" t="s">
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="30" t="s">
         <v>126</v>
       </c>
       <c r="R13" s="8"/>
@@ -2084,9 +2121,9 @@
         <v>24</v>
       </c>
       <c r="N14" s="22"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31" t="s">
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30" t="s">
         <v>125</v>
       </c>
       <c r="R14" s="8"/>
@@ -2122,9 +2159,9 @@
         <v>25</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -2160,11 +2197,11 @@
         <v>60</v>
       </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="32" t="s">
+      <c r="O16" s="29"/>
+      <c r="P16" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -2198,11 +2235,11 @@
         <v>1</v>
       </c>
       <c r="N17" s="22"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="32" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -2242,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="28" t="s">
+      <c r="O18" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P18" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="26" t="s">
         <v>133</v>
       </c>
       <c r="R18" s="8"/>
@@ -2286,11 +2323,11 @@
         <v>61</v>
       </c>
       <c r="N19" s="22"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30" t="s">
+      <c r="O19" s="29"/>
+      <c r="P19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -2309,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2322,24 +2359,44 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
-    <col min="8" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="2.625" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="25" customWidth="1"/>
-    <col min="18" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="26" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="25" customWidth="1"/>
+    <col min="10" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="2.625" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="15" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="25" customWidth="1"/>
+    <col min="20" max="20" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="28" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="S1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -2352,20 +2409,32 @@
       <c r="G2" s="25">
         <v>1105</v>
       </c>
-      <c r="N2">
+      <c r="H2" s="25">
+        <v>1107</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1108</v>
+      </c>
+      <c r="P2">
         <v>1017</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1024</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1031</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="S2" s="25">
         <v>1105</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T2" s="25">
+        <v>1107</v>
+      </c>
+      <c r="U2">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2383,29 +2452,31 @@
         <v>99</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="10">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="10">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>17771</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="11"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2423,31 +2494,33 @@
       <c r="G4" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="10">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10">
         <v>18</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>17774</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T4" s="11"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2467,31 +2540,33 @@
       <c r="G5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="10">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10">
         <v>19</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>17800</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="O5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T5" s="11"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2507,31 +2582,33 @@
         <v>101</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="10">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10">
         <v>20</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>17801</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="11"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2551,29 +2628,31 @@
       <c r="G7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="10">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>17810</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2591,31 +2670,33 @@
       <c r="G8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="10">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10">
         <v>22</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>17834</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T8" s="11"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2631,29 +2712,31 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="10">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10">
         <v>23</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>17851</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2669,29 +2752,31 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="10">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="10">
         <v>24</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>17862</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="11"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2707,31 +2792,35 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="10">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10">
         <v>25</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>17865</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="O11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="S11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="19"/>
+      <c r="U11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2749,29 +2838,31 @@
       <c r="G12" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="10">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10">
         <v>26</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>17880</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="O12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2787,27 +2878,29 @@
         <v>98</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="10">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10">
         <v>27</v>
       </c>
-      <c r="L13" s="13">
+      <c r="N13" s="13">
         <v>17903</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2825,31 +2918,33 @@
       <c r="G14" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="10">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10">
         <v>29</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>17928</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="11"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2867,29 +2962,31 @@
       <c r="G15" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="10">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10">
         <v>30</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>17953</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2905,31 +3002,35 @@
         <v>97</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="10">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="10">
         <v>31</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>17965</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T16" s="11"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2947,33 +3048,35 @@
       <c r="G17" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="10">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10">
         <v>32</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>17985</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="11"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2989,30 +3092,30 @@
         <v>116</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="10:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J36" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1115,11 +1120,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>バックアップファイルから復元</t>
+    <rPh sb="12" eb="14">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1589,7 +1601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2346,10 +2358,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,11 +2380,13 @@
     <col min="15" max="18" width="14.125" customWidth="1"/>
     <col min="19" max="19" width="14.125" style="25" customWidth="1"/>
     <col min="20" max="20" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.125" customWidth="1"/>
-    <col min="23" max="28" width="5.625" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="29" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2384,7 +2399,9 @@
       <c r="I1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="S1" t="s">
         <v>153</v>
@@ -2395,8 +2412,11 @@
       <c r="U1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -2415,6 +2435,9 @@
       <c r="I2" s="25">
         <v>1108</v>
       </c>
+      <c r="J2" s="25">
+        <v>1111</v>
+      </c>
       <c r="P2">
         <v>1017</v>
       </c>
@@ -2433,8 +2456,11 @@
       <c r="U2">
         <v>1108</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2475,8 +2501,9 @@
       <c r="T3" s="11"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2519,8 +2546,9 @@
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2565,8 +2593,9 @@
       <c r="T5" s="11"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2607,8 +2636,9 @@
       <c r="T6" s="11"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2651,8 +2681,9 @@
       <c r="T7" s="11"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2695,8 +2726,9 @@
       <c r="T8" s="11"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2735,8 +2767,9 @@
       <c r="T9" s="19"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2775,8 +2808,9 @@
       <c r="T10" s="11"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2819,8 +2853,9 @@
         <v>155</v>
       </c>
       <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2861,8 +2896,9 @@
       <c r="T12" s="11"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2899,8 +2935,9 @@
       <c r="T13" s="11"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2943,8 +2980,9 @@
       <c r="T14" s="11"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2985,8 +3023,9 @@
       <c r="T15" s="11"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3006,7 +3045,9 @@
       <c r="I16" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="10">
@@ -3029,8 +3070,9 @@
       <c r="T16" s="11"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3075,8 +3117,9 @@
       <c r="T17" s="11"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3095,21 +3138,22 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L35" s="6"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1131,7 +1126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1601,7 +1596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2358,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2374,19 +2369,21 @@
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="25" customWidth="1"/>
-    <col min="10" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="2.625" customWidth="1"/>
-    <col min="14" max="14" width="5.625" customWidth="1"/>
-    <col min="15" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="25" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="29" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="2.625" customWidth="1"/>
+    <col min="15" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="25" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="24" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="31" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2402,21 +2399,27 @@
       <c r="J1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="S1" t="s">
+      <c r="K1" s="25" t="s">
         <v>153</v>
       </c>
+      <c r="L1" s="3"/>
       <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
         <v>154</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X1" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -2438,29 +2441,35 @@
       <c r="J2" s="25">
         <v>1111</v>
       </c>
-      <c r="P2">
+      <c r="K2" s="25">
+        <v>1112</v>
+      </c>
+      <c r="Q2">
         <v>1017</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1024</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1031</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>1105</v>
       </c>
-      <c r="T2" s="25">
+      <c r="U2" s="25">
         <v>1107</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1108</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>1111</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X2" s="25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2483,27 +2492,29 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="10">
+      <c r="M3" s="7"/>
+      <c r="N3" s="10">
         <v>17</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17771</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="7"/>
+      <c r="U3" s="11"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2526,29 +2537,31 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="10">
+      <c r="M4" s="7"/>
+      <c r="N4" s="10">
         <v>18</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>17774</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="11"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2573,29 +2586,31 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="10">
+      <c r="M5" s="7"/>
+      <c r="N5" s="10">
         <v>19</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>17800</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18"/>
+      <c r="S5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="11"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2616,29 +2631,31 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="10">
+      <c r="M6" s="7"/>
+      <c r="N6" s="10">
         <v>20</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>17801</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="18"/>
+      <c r="S6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="11"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2663,27 +2680,29 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="10">
+      <c r="M7" s="7"/>
+      <c r="N7" s="10">
         <v>21</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17810</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="11"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2706,29 +2725,31 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="10">
+      <c r="M8" s="7"/>
+      <c r="N8" s="10">
         <v>22</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>17834</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="11"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2749,27 +2770,29 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="10">
+      <c r="M9" s="7"/>
+      <c r="N9" s="10">
         <v>23</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>17851</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="18"/>
+      <c r="S9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="S9" s="19"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="19"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2790,27 +2813,29 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="10">
+      <c r="M10" s="7"/>
+      <c r="N10" s="10">
         <v>24</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>17862</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="11"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="7"/>
+      <c r="U10" s="11"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2831,31 +2856,33 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="10">
+      <c r="M11" s="7"/>
+      <c r="N11" s="10">
         <v>25</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>17865</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="18"/>
+      <c r="S11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="T11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="19"/>
+      <c r="V11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2878,27 +2905,29 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="10">
+      <c r="M12" s="7"/>
+      <c r="N12" s="10">
         <v>26</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>17880</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="18"/>
+      <c r="S12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="11"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2919,25 +2948,27 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="10">
+      <c r="M13" s="7"/>
+      <c r="N13" s="10">
         <v>27</v>
       </c>
-      <c r="N13" s="13">
+      <c r="O13" s="13">
         <v>17903</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="11"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="11"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2960,29 +2991,31 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="10">
+      <c r="M14" s="7"/>
+      <c r="N14" s="10">
         <v>29</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>17928</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="18"/>
+      <c r="S14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="11"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3005,27 +3038,29 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="10">
+      <c r="M15" s="7"/>
+      <c r="N15" s="10">
         <v>30</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>17953</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="P15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="19" t="s">
+      <c r="R15" s="18"/>
+      <c r="S15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="11"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3048,31 +3083,33 @@
       <c r="J16" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="10">
+      <c r="M16" s="7"/>
+      <c r="N16" s="10">
         <v>31</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>17965</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="7"/>
+      <c r="T16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="11"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3095,31 +3132,33 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="10">
+      <c r="M17" s="7"/>
+      <c r="N17" s="10">
         <v>32</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17985</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="7"/>
+      <c r="S17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3138,28 +3177,30 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L36" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="13:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="170">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -841,16 +846,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>来週初めに確認</t>
-    <rPh sb="0" eb="3">
-      <t>ライシュウハジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタンリンク確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -1119,6 +1114,133 @@
     <t>バックアップファイルから復元</t>
     <rPh sb="12" eb="14">
       <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toppage修正
+サブページ作成</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ修正</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページの写真
+bodyの背景色</t>
+    <rPh sb="7" eb="9">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハイケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページのヘッダー
+統一（リンクボタン）</t>
+    <rPh sb="11" eb="13">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタン設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページの整理</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイント
+でサブページの
+デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページの制作</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アコーディオンメニュー作成に伴う
+文字色、太さの調整
+</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>モジショク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページの画像
+サイズ調整</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真のリンク切れ
+フォルダーミス
+ボックスレイアウト
+の不備</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+メニューボタン整理</t>
+    <rPh sb="14" eb="16">
+      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1596,7 +1718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1606,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1642,6 +1764,9 @@
       <c r="G2">
         <v>1107</v>
       </c>
+      <c r="H2">
+        <v>1114</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
@@ -1653,6 +1778,9 @@
       </c>
       <c r="Q2">
         <v>1107</v>
+      </c>
+      <c r="R2">
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1671,7 +1799,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1733,7 +1861,9 @@
         <v>96</v>
       </c>
       <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="R4" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
@@ -1753,7 +1883,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1771,7 +1901,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1927,7 +2057,7 @@
         <v>108</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -2007,9 +2137,11 @@
       </c>
       <c r="P11" s="27"/>
       <c r="Q11" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>157</v>
+      </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
@@ -2111,10 +2243,10 @@
         <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2189,7 +2321,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2273,7 +2405,9 @@
       <c r="G18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="10">
@@ -2293,9 +2427,11 @@
         <v>83</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
@@ -2315,9 +2451,11 @@
         <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="10">
@@ -2355,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2368,18 +2506,18 @@
     <col min="4" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
     <col min="12" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="19" width="14.125" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="25" customWidth="1"/>
     <col min="21" max="21" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
     <col min="23" max="24" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="11.125" customWidth="1"/>
     <col min="26" max="31" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2388,35 +2526,40 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
-        <v>154</v>
-      </c>
       <c r="I1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="T1" t="s">
-        <v>153</v>
-      </c>
-      <c r="U1" t="s">
-        <v>154</v>
-      </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W1" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2444,6 +2587,9 @@
       <c r="K2" s="25">
         <v>1112</v>
       </c>
+      <c r="L2" s="25">
+        <v>1114</v>
+      </c>
       <c r="Q2">
         <v>1017</v>
       </c>
@@ -2467,6 +2613,9 @@
       </c>
       <c r="X2" s="25">
         <v>1112</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,7 +2671,7 @@
         <v>17510</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -2530,14 +2679,15 @@
         <v>98</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="N4" s="10">
         <v>18</v>
       </c>
@@ -2579,13 +2729,15 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="10">
         <v>19</v>
@@ -2602,7 +2754,7 @@
         <v>118</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="7"/>
@@ -2647,7 +2799,7 @@
         <v>119</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="7"/>
@@ -2673,13 +2825,15 @@
         <v>102</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="10">
         <v>21</v>
@@ -2718,7 +2872,7 @@
         <v>115</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -2741,7 +2895,7 @@
         <v>120</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="7"/>
@@ -2872,15 +3026,17 @@
         <v>92</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="26" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
@@ -2898,13 +3054,15 @@
         <v>114</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="10">
         <v>26</v>
@@ -2984,7 +3142,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3007,7 +3165,7 @@
         <v>122</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="7"/>
@@ -3031,7 +3189,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3078,13 +3236,15 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="10">
         <v>31</v>
@@ -3101,7 +3261,7 @@
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U16" s="11"/>
       <c r="V16" s="7"/>
@@ -3125,7 +3285,7 @@
         <v>115</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -2493,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,20 +2503,22 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="6" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="25" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
     <col min="12" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="19" width="14.125" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="25" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="24" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.875" customWidth="1"/>
     <col min="25" max="25" width="11.125" customWidth="1"/>
     <col min="26" max="31" width="5.625" customWidth="1"/>
   </cols>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="4950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1241,6 +1236,13 @@
 メニューボタン整理</t>
     <rPh sb="14" eb="16">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶋田</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1718,7 +1720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -2491,11 +2493,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2511,19 +2513,22 @@
     <col min="9" max="9" width="4.875" style="25" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="2.625" customWidth="1"/>
-    <col min="15" max="15" width="5.625" customWidth="1"/>
-    <col min="16" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="5" style="25" customWidth="1"/>
-    <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="24" width="4.875" customWidth="1"/>
-    <col min="25" max="25" width="11.125" customWidth="1"/>
-    <col min="26" max="31" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="25" customWidth="1"/>
+    <col min="23" max="23" width="5" style="25" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="26" width="4.875" customWidth="1"/>
+    <col min="27" max="27" width="11.125" customWidth="1"/>
+    <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2545,26 +2550,33 @@
       <c r="L1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="T1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U1" t="s">
-        <v>153</v>
-      </c>
+      <c r="M1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="3"/>
       <c r="V1" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB1" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -2592,35 +2604,42 @@
       <c r="L2" s="25">
         <v>1114</v>
       </c>
-      <c r="Q2">
+      <c r="M2" s="25">
+        <v>1119</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="S2">
         <v>1017</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>1024</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1031</v>
       </c>
-      <c r="T2" s="25">
+      <c r="V2" s="25">
         <v>1105</v>
       </c>
-      <c r="U2" s="25">
+      <c r="W2" s="25">
         <v>1107</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1108</v>
       </c>
-      <c r="W2" s="25">
+      <c r="Y2" s="25">
         <v>1111</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Z2" s="25">
         <v>1112</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="AA2" s="25">
         <v>1114</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB2" s="25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2644,28 +2663,31 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="10">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="10">
         <v>17</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>17771</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2690,30 +2712,33 @@
       <c r="L4" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="10">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="P4" s="10">
         <v>18</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="4">
         <v>17774</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="26"/>
+    </row>
+    <row r="5" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2740,31 +2765,34 @@
       <c r="L5" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="10">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="10">
         <v>19</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>17800</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="V5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2786,30 +2814,33 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="10">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="10">
         <v>20</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>17801</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2836,29 +2867,32 @@
       <c r="L7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="10">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="10">
         <v>21</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>17810</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2882,30 +2916,33 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="10">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="10">
         <v>22</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>17834</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2927,28 +2964,31 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="10">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="10">
         <v>23</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>17851</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2970,28 +3010,31 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="10">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="10">
         <v>24</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>17862</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7" t="s">
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -3013,34 +3056,37 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="10">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="10">
         <v>25</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Q11" s="4">
         <v>17865</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="V11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="11" t="s">
+      <c r="W11" s="19"/>
+      <c r="X11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="26" t="s">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="26" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -3066,28 +3112,31 @@
         <v>165</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="10">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="10">
         <v>26</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="4">
         <v>17880</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -3109,26 +3158,29 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="10">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="10">
         <v>27</v>
       </c>
-      <c r="O13" s="13">
+      <c r="Q13" s="13">
         <v>17903</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -3152,30 +3204,33 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="10">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="10">
         <v>29</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="4">
         <v>17928</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3199,28 +3254,31 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="10">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="10">
         <v>30</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="4">
         <v>17953</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3247,31 +3305,34 @@
       <c r="L16" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="10">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="10">
         <v>31</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>17965</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7" t="s">
+      <c r="S16" s="7"/>
+      <c r="T16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="11" t="s">
+      <c r="U16" s="7"/>
+      <c r="V16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3295,32 +3356,35 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="10">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="10">
         <v>32</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>17985</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="7"/>
+      <c r="U17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3340,29 +3404,32 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="13:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.15">
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.15">
-      <c r="M36" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="15:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1243,6 +1248,54 @@
     <t>嶋田</t>
     <rPh sb="0" eb="2">
       <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトコンセプト見直し</t>
+    <rPh sb="8" eb="10">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネパール料理レストラン日本にあるのか、
+ネパールにあるか</t>
+    <rPh sb="4" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのデザイン
+ヘッダー統一</t>
+    <rPh sb="16" eb="18">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタン整理
+ヘッダー統一</t>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成
+サブページに展開</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1720,7 +1773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1730,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1769,6 +1822,9 @@
       <c r="H2">
         <v>1114</v>
       </c>
+      <c r="I2">
+        <v>1121</v>
+      </c>
       <c r="N2">
         <v>1017</v>
       </c>
@@ -1783,6 +1839,9 @@
       </c>
       <c r="R2">
         <v>1114</v>
+      </c>
+      <c r="S2">
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2023,7 +2082,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
@@ -2100,7 +2159,9 @@
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2144,7 +2205,9 @@
       <c r="R11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2182,7 +2245,9 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2250,7 +2315,9 @@
       <c r="H14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="10">
         <v>29</v>
@@ -2326,7 +2393,9 @@
         <v>133</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="10">
         <v>31</v>
@@ -2434,7 +2503,9 @@
       <c r="R18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="S18" s="8"/>
+      <c r="S18" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2476,7 +2547,9 @@
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="T19" s="8"/>
     </row>
   </sheetData>
@@ -2495,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="8175" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="AM" sheetId="1" r:id="rId1"/>
-    <sheet name="PM" sheetId="3" r:id="rId2"/>
+    <sheet name="PM10月" sheetId="4" r:id="rId1"/>
+    <sheet name="AM10月" sheetId="5" r:id="rId2"/>
+    <sheet name="AM11月" sheetId="1" r:id="rId3"/>
+    <sheet name="PM11月" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="見出しの調整">AM!$N$3:$T$19</definedName>
+    <definedName name="見出しの調整" localSheetId="1">AM10月!$L$3:$O$19</definedName>
+    <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -415,13 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブページ作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -466,35 +462,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンクボタン作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リンクボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ確認</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,13 +498,6 @@
     <t>パワーポイント制作</t>
     <rPh sb="7" eb="9">
       <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンクページ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -659,13 +620,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンクページ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップページ作成
 各ページタイトル
 と説明文</t>
@@ -748,13 +702,6 @@
 には不必要</t>
     <rPh sb="12" eb="15">
       <t>フヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>html作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1296,6 +1243,123 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ整理</t>
+    <rPh sb="3" eb="5">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページリンク不備</t>
+    <rPh sb="6" eb="8">
+      <t>フビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク切れ</t>
+    <rPh sb="3" eb="4">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページテキストのマージン調整</t>
+    <rPh sb="15" eb="17">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページに展開</t>
+    <rPh sb="6" eb="8">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ酒精</t>
+    <rPh sb="6" eb="8">
+      <t>シュセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+タイトル修正
+サブページに展開</t>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト確認
+サブページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーポイントで
+ページデザイン作成</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ修正
+リンクボタンの統一
+サブページに展開</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正チェック</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1781,796 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="2.625" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="45" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="D2">
-        <v>1017</v>
-      </c>
-      <c r="E2">
-        <v>1024</v>
-      </c>
-      <c r="F2">
-        <v>1031</v>
-      </c>
-      <c r="G2">
-        <v>1107</v>
-      </c>
-      <c r="H2">
-        <v>1114</v>
-      </c>
-      <c r="I2">
-        <v>1121</v>
-      </c>
-      <c r="N2">
-        <v>1017</v>
-      </c>
-      <c r="O2">
-        <v>1024</v>
-      </c>
-      <c r="P2">
-        <v>1031</v>
-      </c>
-      <c r="Q2">
-        <v>1107</v>
-      </c>
-      <c r="R2">
-        <v>1114</v>
-      </c>
-      <c r="S2">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17311</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="10">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>17742</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>17318</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="10">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>17743</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>17511</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="10">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4">
-        <v>17752</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>17542</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10">
-        <v>21</v>
-      </c>
-      <c r="L6">
-        <v>17794</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17546</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="10">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4">
-        <v>17797</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>17664</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="10">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4">
-        <v>17811</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17665</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="10">
-        <v>24</v>
-      </c>
-      <c r="L9" s="4">
-        <v>17813</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>17666</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="10">
-        <v>25</v>
-      </c>
-      <c r="L10">
-        <v>17822</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>17668</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="10">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>17878</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>17672</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="10">
-        <v>27</v>
-      </c>
-      <c r="L12" s="13">
-        <v>17883</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>17688</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="10">
-        <v>28</v>
-      </c>
-      <c r="L13" s="4">
-        <v>17900</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>17697</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="10">
-        <v>29</v>
-      </c>
-      <c r="L14" s="4">
-        <v>17913</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>17698</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="10">
-        <v>30</v>
-      </c>
-      <c r="L15" s="13">
-        <v>17916</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>17723</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="10">
-        <v>31</v>
-      </c>
-      <c r="L16" s="4">
-        <v>17937</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>17728</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10">
-        <v>32</v>
-      </c>
-      <c r="L17" s="4">
-        <v>17942</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17729</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="10">
-        <v>33</v>
-      </c>
-      <c r="L18">
-        <v>17966</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>17738</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="10">
-        <v>34</v>
-      </c>
-      <c r="L19" s="4">
-        <v>17994</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="T19" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A19 K3:K19">
-    <cfRule type="cellIs" priority="1" operator="greaterThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB36"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2578,9 +1857,7 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.875" style="25" customWidth="1"/>
@@ -2591,7 +1868,8 @@
     <col min="14" max="15" width="14.125" customWidth="1"/>
     <col min="16" max="16" width="2.625" customWidth="1"/>
     <col min="17" max="17" width="5.625" customWidth="1"/>
-    <col min="18" max="21" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="21" width="8.625" customWidth="1"/>
     <col min="22" max="22" width="14.125" style="25" customWidth="1"/>
     <col min="23" max="23" width="5" style="25" customWidth="1"/>
     <col min="24" max="24" width="6" customWidth="1"/>
@@ -2601,55 +1879,55 @@
     <col min="29" max="34" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N1" s="3"/>
       <c r="V1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="X1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -2680,7 +1958,9 @@
       <c r="M2" s="25">
         <v>1119</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="25">
+        <v>1121</v>
+      </c>
       <c r="S2">
         <v>1017</v>
       </c>
@@ -2711,8 +1991,11 @@
       <c r="AB2" s="25">
         <v>1119</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2727,7 +2010,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2749,7 +2032,7 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="11"/>
@@ -2760,7 +2043,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2768,25 +2051,27 @@
         <v>17510</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="N4" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="P4" s="10">
         <v>18</v>
       </c>
@@ -2799,10 +2084,10 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="W4" s="11"/>
       <c r="X4" s="7"/>
@@ -2811,7 +2096,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="26"/>
     </row>
-    <row r="5" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2825,21 +2110,23 @@
         <v>75</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="N5" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="10">
         <v>19</v>
@@ -2853,10 +2140,10 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="7"/>
@@ -2865,7 +2152,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="26"/>
     </row>
-    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2878,7 +2165,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2901,10 +2188,10 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="7"/>
@@ -2913,7 +2200,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2925,20 +2212,20 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -2965,7 +2252,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="11"/>
     </row>
-    <row r="8" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2978,10 +2265,10 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -3003,10 +2290,10 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="7"/>
@@ -3015,7 +2302,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -3051,7 +2338,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
@@ -3061,7 +2348,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -3096,7 +2383,7 @@
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="11"/>
@@ -3107,7 +2394,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -3143,23 +2430,23 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -3172,17 +2459,17 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3199,7 +2486,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -3209,7 +2496,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -3222,7 +2509,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -3245,15 +2532,15 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -3269,7 +2556,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3291,10 +2578,10 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="7"/>
@@ -3303,7 +2590,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3319,7 +2606,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3341,7 +2628,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -3351,7 +2638,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3364,19 +2651,19 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3392,11 +2679,11 @@
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="W16" s="11"/>
       <c r="X16" s="7"/>
@@ -3405,7 +2692,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3418,10 +2705,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -3445,10 +2732,10 @@
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="7"/>
@@ -3456,8 +2743,11 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-    </row>
-    <row r="18" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3470,7 +2760,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G18" s="11"/>
       <c r="J18" s="7"/>
@@ -3483,20 +2773,2108 @@
       <c r="Z18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="15:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1017</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>1031</v>
+      </c>
+      <c r="L2">
+        <v>1017</v>
+      </c>
+      <c r="M2">
+        <v>1024</v>
+      </c>
+      <c r="N2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1107</v>
+      </c>
+      <c r="E2">
+        <v>1114</v>
+      </c>
+      <c r="F2">
+        <v>1121</v>
+      </c>
+      <c r="L2">
+        <v>1107</v>
+      </c>
+      <c r="M2">
+        <v>1114</v>
+      </c>
+      <c r="N2">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="25" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="25" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="26" width="4.875" customWidth="1"/>
+    <col min="27" max="27" width="11.125" customWidth="1"/>
+    <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="25">
+        <v>1105</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1107</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1108</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1111</v>
+      </c>
+      <c r="H2" s="25">
+        <v>1112</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1114</v>
+      </c>
+      <c r="J2" s="25">
+        <v>1119</v>
+      </c>
+      <c r="K2" s="25">
+        <v>1121</v>
+      </c>
+      <c r="P2" s="25">
+        <v>1105</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>1107</v>
+      </c>
+      <c r="R2">
+        <v>1108</v>
+      </c>
+      <c r="S2" s="25">
+        <v>1111</v>
+      </c>
+      <c r="T2" s="25">
+        <v>1112</v>
+      </c>
+      <c r="U2" s="25">
+        <v>1114</v>
+      </c>
+      <c r="V2" s="25">
+        <v>1119</v>
+      </c>
+      <c r="W2" s="25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17507</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="10">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>17771</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17510</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="10">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4">
+        <v>17774</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="26"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17513</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4">
+        <v>17800</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="26"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17520</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4">
+        <v>17801</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17551</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <v>17810</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="11"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>17552</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10">
+        <v>22</v>
+      </c>
+      <c r="N8" s="4">
+        <v>17834</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17567</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10">
+        <v>23</v>
+      </c>
+      <c r="N9" s="4">
+        <v>17851</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17575</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="10">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>17862</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>17614</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4">
+        <v>17865</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17687</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10">
+        <v>26</v>
+      </c>
+      <c r="N12" s="4">
+        <v>17880</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17719</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10">
+        <v>27</v>
+      </c>
+      <c r="N13" s="13">
+        <v>17903</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="7"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17725</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4">
+        <v>17928</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>17741</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10">
+        <v>30</v>
+      </c>
+      <c r="N15" s="4">
+        <v>17953</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17746</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="10">
+        <v>31</v>
+      </c>
+      <c r="N16">
+        <v>17965</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17753</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>17985</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17754</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="15:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O35" s="6"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="8175" firstSheet="1" activeTab="3"/>
   </bookViews>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="182">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1837,7 +1832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4075,11 +4070,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4095,23 +4090,24 @@
     <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="6.125" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="14.125" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="21" width="8.625" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="25" customWidth="1"/>
-    <col min="23" max="23" width="12.5" style="25" customWidth="1"/>
-    <col min="24" max="24" width="6" customWidth="1"/>
-    <col min="25" max="26" width="4.875" customWidth="1"/>
-    <col min="27" max="27" width="11.125" customWidth="1"/>
-    <col min="28" max="28" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="22" width="8.625" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="25" customWidth="1"/>
+    <col min="24" max="24" width="12.5" style="25" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="26" max="27" width="4.875" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>144</v>
       </c>
@@ -4136,33 +4132,39 @@
       <c r="K1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="P1" t="s">
+      <c r="L1" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="O1" s="3"/>
       <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" t="s">
         <v>144</v>
       </c>
       <c r="T1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="25">
         <v>1105</v>
       </c>
@@ -4187,32 +4189,38 @@
       <c r="K2" s="25">
         <v>1121</v>
       </c>
-      <c r="P2" s="25">
+      <c r="L2" s="25">
+        <v>1122</v>
+      </c>
+      <c r="Q2" s="25">
         <v>1105</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>1107</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1108</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>1111</v>
       </c>
-      <c r="T2" s="25">
+      <c r="U2" s="25">
         <v>1112</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="25">
         <v>1114</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>1119</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>1121</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y2" s="25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4230,26 +4238,26 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10">
+      <c r="M3" s="7"/>
+      <c r="N3" s="10">
         <v>17</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17771</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3" s="7"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4273,27 +4281,27 @@
       <c r="K4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>18</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>17774</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="26"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4" s="7"/>
+      <c r="W4" s="26"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4317,28 +4325,28 @@
       <c r="K5" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10">
+      <c r="M5" s="7"/>
+      <c r="N5" s="10">
         <v>19</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>17800</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="26"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5" s="7"/>
+      <c r="W5" s="26"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4356,30 +4364,30 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10">
+      <c r="M6" s="7"/>
+      <c r="N6" s="10">
         <v>20</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>17801</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="26" t="s">
+      <c r="W6" s="7"/>
+      <c r="X6" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4401,26 +4409,26 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="10">
+      <c r="M7" s="7"/>
+      <c r="N7" s="10">
         <v>21</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17810</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="11"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7" s="7"/>
+      <c r="W7" s="11"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4440,28 +4448,28 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10">
+      <c r="M8" s="7"/>
+      <c r="N8" s="10">
         <v>22</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>17834</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="7"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4479,26 +4487,26 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="10">
+      <c r="M9" s="7"/>
+      <c r="N9" s="10">
         <v>23</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>17851</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="7"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4516,28 +4524,28 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="10">
+      <c r="M10" s="7"/>
+      <c r="N10" s="10">
         <v>24</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>17862</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="7"/>
+      <c r="X10" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -4555,32 +4563,32 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="10">
+      <c r="M11" s="7"/>
+      <c r="N11" s="10">
         <v>25</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>17865</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="19"/>
+      <c r="S11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="7"/>
+      <c r="V11" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="7"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4604,26 +4612,26 @@
       <c r="K12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10">
+      <c r="M12" s="7"/>
+      <c r="N12" s="10">
         <v>26</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>17880</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="7"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4641,26 +4649,26 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="10">
+      <c r="M13" s="7"/>
+      <c r="N13" s="10">
         <v>27</v>
       </c>
-      <c r="N13" s="13">
+      <c r="O13" s="13">
         <v>17903</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="7"/>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V13" s="17"/>
+      <c r="W13" s="7"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4680,28 +4688,28 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="10">
+      <c r="M14" s="7"/>
+      <c r="N14" s="10">
         <v>29</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>17928</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14"/>
-    </row>
-    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="7"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4723,26 +4731,26 @@
       <c r="K15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10">
+      <c r="M15" s="7"/>
+      <c r="N15" s="10">
         <v>30</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>17953</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="P15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="7"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4768,30 +4776,30 @@
       <c r="K16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="10">
+      <c r="M16" s="7"/>
+      <c r="N16" s="10">
         <v>31</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>17965</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="26" t="s">
+      <c r="T16" s="7"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -4811,30 +4819,30 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="10">
+      <c r="M17" s="7"/>
+      <c r="N17" s="10">
         <v>32</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17985</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="7"/>
+      <c r="X17" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4854,33 +4862,33 @@
       <c r="K18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="S18" s="25"/>
+      <c r="M18" s="7"/>
       <c r="T18" s="25"/>
-      <c r="V18" s="7"/>
+      <c r="U18" s="25"/>
       <c r="W18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="15:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.15">
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.15">
-      <c r="O36" s="6"/>
+      <c r="X18" s="7"/>
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="16:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1832,7 +1832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4070,11 +4070,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4090,24 +4090,24 @@
     <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="6.125" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="5.625" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="22" width="8.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" style="25" customWidth="1"/>
-    <col min="24" max="24" width="12.5" style="25" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="27" width="4.875" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
-    <col min="29" max="29" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="5.625" customWidth="1"/>
+    <col min="12" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="5.625" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="25" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="25" customWidth="1"/>
+    <col min="26" max="27" width="6" customWidth="1"/>
+    <col min="28" max="29" width="4.875" customWidth="1"/>
+    <col min="30" max="30" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>144</v>
       </c>
@@ -4135,36 +4135,42 @@
       <c r="L1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="Q1" t="s">
+      <c r="M1" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="P1" s="3"/>
       <c r="R1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" t="s">
         <v>145</v>
       </c>
-      <c r="S1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" t="s">
         <v>144</v>
       </c>
       <c r="U1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="25">
         <v>1105</v>
       </c>
@@ -4192,35 +4198,41 @@
       <c r="L2" s="25">
         <v>1122</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="M2" s="25">
+        <v>1125</v>
+      </c>
+      <c r="R2" s="25">
         <v>1105</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>1107</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1108</v>
       </c>
-      <c r="T2" s="25">
+      <c r="U2" s="25">
         <v>1111</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="25">
         <v>1112</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>1114</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>1119</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Y2" s="25">
         <v>1121</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="25">
         <v>1122</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA2" s="25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4238,26 +4250,26 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="10">
+      <c r="N3" s="7"/>
+      <c r="O3" s="10">
         <v>17</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>17771</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="7"/>
+      <c r="S3" s="11"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X3" s="7"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4281,27 +4293,27 @@
       <c r="K4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>18</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>17774</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="7"/>
+      <c r="S4" s="11"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="26"/>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4" s="7"/>
+      <c r="X4" s="26"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4325,28 +4337,28 @@
       <c r="K5" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="10">
+      <c r="N5" s="7"/>
+      <c r="O5" s="10">
         <v>19</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>17800</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="11"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="26"/>
-      <c r="X5"/>
-    </row>
-    <row r="6" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5" s="7"/>
+      <c r="X5" s="26"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4364,30 +4376,30 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="10">
+      <c r="N6" s="7"/>
+      <c r="O6" s="10">
         <v>20</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>17801</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4409,26 +4421,26 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="10">
+      <c r="N7" s="7"/>
+      <c r="O7" s="10">
         <v>21</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>17810</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="11"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="11"/>
-      <c r="X7"/>
-    </row>
-    <row r="8" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="7"/>
+      <c r="X7" s="11"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4448,28 +4460,28 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10">
+      <c r="N8" s="7"/>
+      <c r="O8" s="10">
         <v>22</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>17834</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="11"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8"/>
-    </row>
-    <row r="9" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="7"/>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4487,26 +4499,26 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="10">
+      <c r="N9" s="7"/>
+      <c r="O9" s="10">
         <v>23</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>17851</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9"/>
-    </row>
-    <row r="10" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X9" s="7"/>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4524,28 +4536,28 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10">
+      <c r="N10" s="7"/>
+      <c r="O10" s="10">
         <v>24</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>17862</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="7"/>
+      <c r="S10" s="11"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -4563,32 +4575,32 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="10">
+      <c r="N11" s="7"/>
+      <c r="O11" s="10">
         <v>25</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>17865</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="R11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="19"/>
+      <c r="T11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11"/>
-    </row>
-    <row r="12" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="7"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4612,26 +4624,26 @@
       <c r="K12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="10">
+      <c r="N12" s="7"/>
+      <c r="O12" s="10">
         <v>26</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>17880</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="7"/>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4649,26 +4661,26 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="10">
+      <c r="N13" s="7"/>
+      <c r="O13" s="10">
         <v>27</v>
       </c>
-      <c r="O13" s="13">
+      <c r="P13" s="13">
         <v>17903</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="Q13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="7"/>
-      <c r="X13"/>
-    </row>
-    <row r="14" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="17"/>
+      <c r="X13" s="7"/>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4688,28 +4700,28 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="10">
+      <c r="N14" s="7"/>
+      <c r="O14" s="10">
         <v>29</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>17928</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="11"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14"/>
-    </row>
-    <row r="15" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="7"/>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4731,26 +4743,26 @@
       <c r="K15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="10">
+      <c r="N15" s="7"/>
+      <c r="O15" s="10">
         <v>30</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>17953</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="Q15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="7"/>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4776,30 +4788,30 @@
       <c r="K16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="10">
+      <c r="N16" s="7"/>
+      <c r="O16" s="10">
         <v>31</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>17965</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="26" t="s">
+      <c r="U16" s="7"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -4819,30 +4831,30 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="10">
+      <c r="N17" s="7"/>
+      <c r="O17" s="10">
         <v>32</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>17985</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="11"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4862,33 +4874,33 @@
       <c r="K18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="T18" s="25"/>
+      <c r="N18" s="7"/>
       <c r="U18" s="25"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="25"/>
       <c r="X18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="16:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.15">
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.15">
-      <c r="P36" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="17:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="8175" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PM10月" sheetId="4" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1362,7 +1367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1832,7 +1837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4070,11 +4075,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB4" sqref="AB4"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4091,23 +4096,24 @@
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.125" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="17" width="14.125" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="5.625" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="23" width="8.625" customWidth="1"/>
-    <col min="24" max="24" width="14.125" style="25" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="25" customWidth="1"/>
-    <col min="26" max="27" width="6" customWidth="1"/>
-    <col min="28" max="29" width="4.875" customWidth="1"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="4.875" customWidth="1"/>
+    <col min="15" max="15" width="6.125" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="5.625" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="14.125" style="25" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="25" customWidth="1"/>
+    <col min="27" max="28" width="6" customWidth="1"/>
+    <col min="29" max="30" width="4.875" customWidth="1"/>
+    <col min="31" max="31" width="11.125" customWidth="1"/>
+    <col min="32" max="32" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>144</v>
       </c>
@@ -4138,39 +4144,45 @@
       <c r="M1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="R1" t="s">
+      <c r="N1" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="Q1" s="3"/>
       <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
         <v>145</v>
       </c>
-      <c r="T1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" t="s">
         <v>144</v>
       </c>
       <c r="V1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="25">
         <v>1105</v>
       </c>
@@ -4201,38 +4213,44 @@
       <c r="M2" s="25">
         <v>1125</v>
       </c>
-      <c r="R2" s="25">
+      <c r="N2" s="25">
+        <v>1126</v>
+      </c>
+      <c r="S2" s="25">
         <v>1105</v>
       </c>
-      <c r="S2" s="25">
+      <c r="T2" s="25">
         <v>1107</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1108</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="25">
         <v>1111</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>1112</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>1114</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Y2" s="25">
         <v>1119</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Z2" s="25">
         <v>1121</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AA2" s="25">
         <v>1122</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AB2" s="25">
         <v>1125</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4250,26 +4268,26 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="10">
+      <c r="O3" s="7"/>
+      <c r="P3" s="10">
         <v>17</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>17771</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="7"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y3" s="7"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4293,27 +4311,27 @@
       <c r="K4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>18</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>17774</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="26"/>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4337,28 +4355,28 @@
       <c r="K5" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="10">
+      <c r="O5" s="7"/>
+      <c r="P5" s="10">
         <v>19</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>17800</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="26"/>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4376,30 +4394,30 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="10">
+      <c r="O6" s="7"/>
+      <c r="P6" s="10">
         <v>20</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>17801</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4421,26 +4439,26 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="10">
+      <c r="O7" s="7"/>
+      <c r="P7" s="10">
         <v>21</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>17810</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="11"/>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4460,28 +4478,28 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="10">
+      <c r="O8" s="7"/>
+      <c r="P8" s="10">
         <v>22</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>17834</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="7"/>
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4499,26 +4517,26 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="10">
+      <c r="O9" s="7"/>
+      <c r="P9" s="10">
         <v>23</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>17851</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="19"/>
       <c r="S9" s="19"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y9" s="7"/>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4536,28 +4554,28 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10">
+      <c r="O10" s="7"/>
+      <c r="P10" s="10">
         <v>24</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>17862</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="7"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -4575,32 +4593,32 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="10">
+      <c r="O11" s="7"/>
+      <c r="P11" s="10">
         <v>25</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>17865</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="S11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="19"/>
+      <c r="U11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="7"/>
+      <c r="X11" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="X11" s="7"/>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="7"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4624,26 +4642,26 @@
       <c r="K12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="10">
+      <c r="O12" s="7"/>
+      <c r="P12" s="10">
         <v>26</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>17880</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y12" s="7"/>
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4661,26 +4679,26 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="10">
+      <c r="O13" s="7"/>
+      <c r="P13" s="10">
         <v>27</v>
       </c>
-      <c r="P13" s="13">
+      <c r="Q13" s="13">
         <v>17903</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="7"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="17"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4700,28 +4718,28 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="10">
+      <c r="O14" s="7"/>
+      <c r="P14" s="10">
         <v>29</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>17928</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="7"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y14" s="7"/>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4743,26 +4761,26 @@
       <c r="K15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="10">
+      <c r="O15" s="7"/>
+      <c r="P15" s="10">
         <v>30</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>17953</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y15" s="7"/>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4788,30 +4806,30 @@
       <c r="K16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="10">
+      <c r="O16" s="7"/>
+      <c r="P16" s="10">
         <v>31</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>17965</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="26" t="s">
+      <c r="V16" s="7"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -4831,30 +4849,30 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="10">
+      <c r="O17" s="7"/>
+      <c r="P17" s="10">
         <v>32</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>17985</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="7"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4875,32 +4893,33 @@
         <v>179</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="U18" s="25"/>
+      <c r="O18" s="7"/>
       <c r="V18" s="25"/>
-      <c r="X18" s="7"/>
+      <c r="W18" s="25"/>
       <c r="Y18" s="7"/>
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="17:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q36" s="6"/>
+      <c r="Z18" s="7"/>
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="18:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="8775" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PM10月" sheetId="4" r:id="rId1"/>
-    <sheet name="AM10月" sheetId="5" r:id="rId2"/>
+    <sheet name="AM10月" sheetId="5" r:id="rId1"/>
+    <sheet name="PM10月" sheetId="4" r:id="rId2"/>
     <sheet name="AM11月" sheetId="1" r:id="rId3"/>
     <sheet name="PM11月" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="見出しの調整" localSheetId="1">AM10月!$L$3:$O$19</definedName>
+    <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1282,13 +1282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サブページに展開</t>
-    <rPh sb="6" eb="8">
-      <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップページ酒精</t>
     <rPh sb="6" eb="8">
       <t>シュセイ</t>
@@ -1363,11 +1356,40 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページの整理</t>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ整理
+リンクボタン</t>
+    <rPh sb="3" eb="5">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1463,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,6 +1581,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,11 +1870,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1017</v>
+      </c>
+      <c r="E2">
+        <v>1024</v>
+      </c>
+      <c r="F2">
+        <v>1031</v>
+      </c>
+      <c r="L2">
+        <v>1017</v>
+      </c>
+      <c r="M2">
+        <v>1024</v>
+      </c>
+      <c r="N2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1879,55 +2548,17 @@
     <col min="29" max="34" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="V1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" t="s">
-        <v>145</v>
-      </c>
-      <c r="X1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2">
         <v>1017</v>
       </c>
@@ -1937,65 +2568,22 @@
       <c r="F2">
         <v>1031</v>
       </c>
-      <c r="G2" s="25">
-        <v>1105</v>
-      </c>
-      <c r="H2" s="25">
-        <v>1107</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1108</v>
-      </c>
-      <c r="J2" s="25">
-        <v>1111</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1112</v>
-      </c>
-      <c r="L2" s="25">
-        <v>1114</v>
-      </c>
-      <c r="M2" s="25">
-        <v>1119</v>
-      </c>
-      <c r="N2" s="25">
-        <v>1121</v>
-      </c>
-      <c r="S2">
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="K2">
         <v>1017</v>
       </c>
-      <c r="T2">
+      <c r="L2">
         <v>1024</v>
       </c>
-      <c r="U2">
+      <c r="M2">
         <v>1031</v>
       </c>
-      <c r="V2" s="25">
-        <v>1105</v>
-      </c>
-      <c r="W2" s="25">
-        <v>1107</v>
-      </c>
-      <c r="X2">
-        <v>1108</v>
-      </c>
-      <c r="Y2" s="25">
-        <v>1111</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>1112</v>
-      </c>
-      <c r="AA2" s="25">
-        <v>1114</v>
-      </c>
-      <c r="AB2" s="25">
-        <v>1119</v>
-      </c>
-      <c r="AC2" s="25">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2012,38 +2600,25 @@
       <c r="F3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>17771</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="10">
-        <v>17</v>
-      </c>
-      <c r="Q3">
-        <v>17771</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2058,45 +2633,25 @@
       <c r="F4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="G4"/>
+      <c r="H4" s="10">
         <v>18</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="I4" s="4">
         <v>17774</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="26"/>
-    </row>
-    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2113,46 +2668,25 @@
         <v>67</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="10">
+      <c r="G5" s="7"/>
+      <c r="H5" s="10">
         <v>19</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="I5" s="4">
         <v>17800</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="26"/>
-    </row>
-    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2167,40 +2701,25 @@
       <c r="F6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="10">
+      <c r="G6" s="7"/>
+      <c r="H6" s="10">
         <v>20</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="I6" s="4">
         <v>17801</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2217,42 +2736,25 @@
       <c r="F7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="10">
+      <c r="G7" s="7"/>
+      <c r="H7" s="10">
         <v>21</v>
       </c>
-      <c r="Q7">
+      <c r="I7">
         <v>17810</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="11"/>
-    </row>
-    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2267,42 +2769,25 @@
       <c r="F8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="10">
+      <c r="G8" s="7"/>
+      <c r="H8" s="10">
         <v>22</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="I8" s="4">
         <v>17834</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V8"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2317,38 +2802,25 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="10">
+      <c r="G9" s="7"/>
+      <c r="H9" s="10">
         <v>23</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="I9" s="4">
         <v>17851</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2363,38 +2835,25 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>17862</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="10">
-        <v>24</v>
-      </c>
-      <c r="Q10">
-        <v>17862</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2409,44 +2868,25 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="10">
+      <c r="G11" s="7"/>
+      <c r="H11" s="10">
         <v>25</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="I11" s="4">
         <v>17865</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="V11" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2461,42 +2901,25 @@
       <c r="F12" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="10">
+      <c r="G12" s="7"/>
+      <c r="H12" s="10">
         <v>26</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="I12" s="4">
         <v>17880</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V12"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2511,36 +2934,23 @@
       <c r="F13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="10">
+      <c r="G13" s="7"/>
+      <c r="H13" s="10">
         <v>27</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="I13" s="13">
         <v>17903</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="V13"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2555,42 +2965,25 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="10">
+      <c r="G14" s="7"/>
+      <c r="H14" s="10">
         <v>29</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="I14" s="4">
         <v>17928</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19" t="s">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="V14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2605,40 +2998,25 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="10">
+      <c r="G15" s="7"/>
+      <c r="H15" s="10">
         <v>30</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="I15" s="4">
         <v>17953</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V15"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2653,46 +3031,25 @@
       <c r="F16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="10">
+      <c r="G16" s="7"/>
+      <c r="H16" s="10">
         <v>31</v>
       </c>
-      <c r="Q16">
+      <c r="I16">
         <v>17965</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U16" s="7"/>
-      <c r="V16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="11"/>
-    </row>
-    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="7"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2707,47 +3064,27 @@
       <c r="F17" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>17985</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="10">
-        <v>32</v>
-      </c>
-      <c r="Q17">
-        <v>17985</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2762,31 +3099,31 @@
       <c r="F18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G18" s="7"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="15:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O35" s="6"/>
@@ -2796,650 +3133,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
-    <col min="14" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="22" width="14.125" customWidth="1"/>
-    <col min="23" max="45" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D2">
-        <v>1017</v>
-      </c>
-      <c r="E2">
-        <v>1024</v>
-      </c>
-      <c r="F2">
-        <v>1031</v>
-      </c>
-      <c r="L2">
-        <v>1017</v>
-      </c>
-      <c r="M2">
-        <v>1024</v>
-      </c>
-      <c r="N2">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17311</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="10">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>17742</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>17318</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>17743</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>17511</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4">
-        <v>17752</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>17542</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <v>17794</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17546</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="10">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4">
-        <v>17797</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>17664</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="10">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4">
-        <v>17811</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17665</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="10">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4">
-        <v>17813</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>17666</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="10">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>17822</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>17668</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="10">
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <v>17878</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>17672</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="10">
-        <v>27</v>
-      </c>
-      <c r="J12" s="4">
-        <v>17883</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>17688</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="10">
-        <v>28</v>
-      </c>
-      <c r="J13" s="4">
-        <v>17900</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>17697</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="10">
-        <v>29</v>
-      </c>
-      <c r="J14" s="4">
-        <v>17913</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>17698</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="10">
-        <v>30</v>
-      </c>
-      <c r="J15" s="13">
-        <v>17916</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>17723</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="10">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4">
-        <v>17937</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>17728</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="10">
-        <v>32</v>
-      </c>
-      <c r="J17" s="4">
-        <v>17942</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17729</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="10">
-        <v>33</v>
-      </c>
-      <c r="J18">
-        <v>17966</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>17738</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="10">
-        <v>34</v>
-      </c>
-      <c r="J19" s="4">
-        <v>17994</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A19 I3:I19">
-    <cfRule type="cellIs" priority="1" operator="greaterThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3449,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3458,11 +3151,13 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
-    <col min="14" max="16" width="8.625" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
     <col min="17" max="17" width="8.25" customWidth="1"/>
     <col min="18" max="22" width="14.125" customWidth="1"/>
     <col min="23" max="45" width="5.625" customWidth="1"/>
@@ -3482,14 +3177,20 @@
       <c r="F2">
         <v>1121</v>
       </c>
-      <c r="L2">
+      <c r="G2">
+        <v>1128</v>
+      </c>
+      <c r="L2" s="1">
         <v>1107</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>1114</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1121</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,9 +3221,9 @@
       <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -3552,11 +3253,11 @@
       <c r="K4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
@@ -3575,7 +3276,9 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10">
         <v>20</v>
@@ -3589,8 +3292,8 @@
       <c r="L5" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="27"/>
+      <c r="N5" s="32" t="s">
         <v>170</v>
       </c>
       <c r="O5" s="7"/>
@@ -3619,8 +3322,8 @@
         <v>17</v>
       </c>
       <c r="L6" s="30"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3638,7 +3341,9 @@
       <c r="F7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="10">
         <v>22</v>
@@ -3650,8 +3355,8 @@
         <v>19</v>
       </c>
       <c r="L7" s="30"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
@@ -3680,8 +3385,8 @@
         <v>18</v>
       </c>
       <c r="L8" s="30"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
@@ -3712,8 +3417,8 @@
       <c r="L9" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
@@ -3741,9 +3446,9 @@
       <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="27" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="32" t="s">
         <v>163</v>
       </c>
       <c r="O10" s="7"/>
@@ -3812,7 +3517,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="26"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="26" t="s">
         <v>167</v>
       </c>
@@ -3846,8 +3551,8 @@
       <c r="L13" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
@@ -3870,7 +3575,9 @@
       <c r="F14" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="10">
         <v>29</v>
@@ -3884,8 +3591,8 @@
       <c r="L14" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="26"/>
       <c r="P14" s="7"/>
     </row>
@@ -3902,7 +3609,9 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10">
         <v>30</v>
@@ -3914,8 +3623,8 @@
         <v>25</v>
       </c>
       <c r="L15" s="26"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
@@ -3948,8 +3657,8 @@
         <v>60</v>
       </c>
       <c r="L16" s="26"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="11"/>
       <c r="P16" s="7"/>
     </row>
@@ -3977,9 +3686,9 @@
       <c r="K17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
@@ -4014,13 +3723,15 @@
       <c r="L18" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -4053,8 +3764,8 @@
       <c r="K19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="26" t="s">
         <v>164</v>
       </c>
@@ -4075,45 +3786,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="4.875" customWidth="1"/>
+    <col min="14" max="14" width="5.25" customWidth="1"/>
     <col min="15" max="15" width="6.125" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="10.375" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="20" max="20" width="5.625" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="14.125" style="25" customWidth="1"/>
+    <col min="21" max="21" width="6.625" customWidth="1"/>
+    <col min="22" max="23" width="5.875" customWidth="1"/>
+    <col min="24" max="24" width="9.5" customWidth="1"/>
+    <col min="25" max="25" width="5.75" style="25" customWidth="1"/>
     <col min="26" max="26" width="12.5" style="25" customWidth="1"/>
     <col min="27" max="28" width="6" customWidth="1"/>
-    <col min="29" max="30" width="4.875" customWidth="1"/>
+    <col min="29" max="29" width="5.125" customWidth="1"/>
+    <col min="30" max="30" width="5.25" customWidth="1"/>
     <col min="31" max="31" width="11.125" customWidth="1"/>
     <col min="32" max="32" width="5.625" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>144</v>
       </c>
@@ -4146,6 +3860,9 @@
       </c>
       <c r="N1" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="S1" t="s">
@@ -4170,7 +3887,7 @@
         <v>162</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>144</v>
@@ -4181,8 +3898,11 @@
       <c r="AC1" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD1" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="25">
         <v>1105</v>
       </c>
@@ -4216,6 +3936,9 @@
       <c r="N2" s="25">
         <v>1126</v>
       </c>
+      <c r="O2" s="25">
+        <v>1128</v>
+      </c>
       <c r="S2" s="25">
         <v>1105</v>
       </c>
@@ -4249,8 +3972,11 @@
       <c r="AC2" s="25">
         <v>1126</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD2" s="25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4287,7 +4013,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4331,7 +4057,7 @@
       <c r="Y4" s="26"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4353,7 +4079,7 @@
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="10">
@@ -4376,7 +4102,7 @@
       <c r="Y5" s="26"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4414,10 +4140,10 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4458,7 +4184,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4499,7 +4225,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4536,7 +4262,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4572,10 +4298,10 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -4618,7 +4344,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4661,7 +4387,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4695,10 +4421,19 @@
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13"/>
-    </row>
-    <row r="14" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4739,7 +4474,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4759,7 +4494,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="10">
@@ -4780,7 +4515,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4804,7 +4539,7 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="10">
@@ -4826,7 +4561,7 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -4869,7 +4604,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -4890,7 +4625,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="8775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="200">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1364,13 +1364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページの整理</t>
-    <rPh sb="4" eb="6">
-      <t>セイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブページ作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -1378,10 +1371,178 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ以外の
+メイン画像の変更
+高さ調整</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リキッドレイアウト再考
+テキストとイメージのテキストとイメージのマージンなど</t>
+    <rPh sb="9" eb="11">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ以外の
+メインイメージの高さ
+を短く</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページの整理
+ヘッダーレイアウトの
+統一</t>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージのリンク切れ</t>
+    <rPh sb="8" eb="9">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ページ整理
-リンクボタン</t>
+リンクボタン
+トップページデザイン調整</t>
     <rPh sb="3" eb="5">
       <t>セイリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタンの関係
+づけ</t>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページ
+ページレイアウト統一</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページリンク作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ修正
+サイトタイトル</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真サイズ調整
+ボタンリンク</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページリンク
+トップイメージ
+の比率固定</t>
+    <rPh sb="16" eb="18">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数ページ作成
+ページリンク作成</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+サブページ作成
+リンクボタン配置調整</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3142,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3157,7 +3318,8 @@
     <col min="10" max="10" width="6.875" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="12" max="14" width="13.875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
     <col min="17" max="17" width="8.25" customWidth="1"/>
     <col min="18" max="22" width="14.125" customWidth="1"/>
     <col min="23" max="45" width="5.625" customWidth="1"/>
@@ -3258,7 +3420,9 @@
         <v>151</v>
       </c>
       <c r="N4" s="27"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="26" t="s">
+        <v>185</v>
+      </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,7 +3441,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="10">
@@ -3296,7 +3460,9 @@
       <c r="N5" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,7 +3539,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="10">
         <v>23</v>
@@ -3419,7 +3587,9 @@
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3610,7 +3780,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10">
@@ -3729,8 +3899,8 @@
       <c r="N18" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>182</v>
+      <c r="O18" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="P18" s="7"/>
     </row>
@@ -3788,9 +3958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3808,7 +3978,7 @@
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5.25" customWidth="1"/>
-    <col min="15" max="15" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
     <col min="16" max="16" width="3.5" customWidth="1"/>
     <col min="17" max="17" width="6.75" customWidth="1"/>
     <col min="18" max="18" width="10.375" customWidth="1"/>
@@ -3821,7 +3991,7 @@
     <col min="26" max="26" width="12.5" style="25" customWidth="1"/>
     <col min="27" max="28" width="6" customWidth="1"/>
     <col min="29" max="29" width="5.125" customWidth="1"/>
-    <col min="30" max="30" width="5.25" customWidth="1"/>
+    <col min="30" max="30" width="11.25" customWidth="1"/>
     <col min="31" max="31" width="11.125" customWidth="1"/>
     <col min="32" max="32" width="5.625" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="5.625" customWidth="1"/>
@@ -3994,7 +4164,9 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="P3" s="10">
         <v>17</v>
       </c>
@@ -4012,6 +4184,9 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3"/>
+      <c r="AD3" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
@@ -4081,7 +4256,9 @@
       <c r="K5" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="P5" s="10">
         <v>19</v>
       </c>
@@ -4120,7 +4297,9 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="P6" s="10">
         <v>20</v>
       </c>
@@ -4142,6 +4321,9 @@
       <c r="Z6" s="26" t="s">
         <v>179</v>
       </c>
+      <c r="AD6" s="26" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
@@ -4183,6 +4365,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="11"/>
       <c r="Z7"/>
+      <c r="AD7" s="11" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
@@ -4224,6 +4409,9 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8"/>
+      <c r="AD8" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
@@ -4300,6 +4488,9 @@
       <c r="Z10" s="26" t="s">
         <v>179</v>
       </c>
+      <c r="AD10" s="26" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
@@ -4368,7 +4559,9 @@
       <c r="K12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="P12" s="10">
         <v>26</v>
       </c>
@@ -4405,7 +4598,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="P13" s="10">
         <v>27</v>
       </c>
@@ -4473,6 +4668,9 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14"/>
+      <c r="AD14" s="11" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
@@ -4496,7 +4694,9 @@
       <c r="K15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="P15" s="10">
         <v>30</v>
       </c>
@@ -4541,7 +4741,9 @@
       <c r="K16" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="P16" s="10">
         <v>31</v>
       </c>
@@ -4628,7 +4830,9 @@
         <v>178</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
       <c r="Y18" s="7"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="8175" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
     <sheet name="PM10月" sheetId="4" r:id="rId2"/>
     <sheet name="AM11月" sheetId="1" r:id="rId3"/>
     <sheet name="PM11月" sheetId="3" r:id="rId4"/>
+    <sheet name="PM12月 " sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1546,12 +1547,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>上田</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラマ　ダワ　チリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンブ　ビクラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フイン　バン　テーブー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュ　ティ　エンリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グエン　マイン　キエン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グエン　ハイ　イエン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トン　ヌ　ゴク　ミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,8 +1635,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1693,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1646,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,6 +1813,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3956,11 +4054,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3979,25 +4077,25 @@
     <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5.25" customWidth="1"/>
     <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="6.75" customWidth="1"/>
-    <col min="18" max="18" width="10.375" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="5.625" customWidth="1"/>
-    <col min="21" max="21" width="6.625" customWidth="1"/>
-    <col min="22" max="23" width="5.875" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="5.75" style="25" customWidth="1"/>
-    <col min="26" max="26" width="12.5" style="25" customWidth="1"/>
-    <col min="27" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.125" customWidth="1"/>
-    <col min="30" max="30" width="11.25" customWidth="1"/>
-    <col min="31" max="31" width="11.125" customWidth="1"/>
-    <col min="32" max="32" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="5.625" customWidth="1"/>
+    <col min="16" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1"/>
+    <col min="19" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="6.625" customWidth="1"/>
+    <col min="24" max="25" width="5.875" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="5.75" style="25" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="25" customWidth="1"/>
+    <col min="29" max="30" width="6" customWidth="1"/>
+    <col min="31" max="31" width="5.125" customWidth="1"/>
+    <col min="32" max="32" width="11.25" customWidth="1"/>
+    <col min="33" max="34" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>144</v>
       </c>
@@ -4034,45 +4132,51 @@
       <c r="O1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="S1" t="s">
+      <c r="P1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T1" t="s">
-        <v>145</v>
-      </c>
+      <c r="S1" s="3"/>
       <c r="U1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="25">
         <v>1105</v>
       </c>
@@ -4109,44 +4213,50 @@
       <c r="O2" s="25">
         <v>1128</v>
       </c>
-      <c r="S2" s="25">
+      <c r="P2" s="25">
+        <v>1129</v>
+      </c>
+      <c r="U2" s="25">
         <v>1105</v>
       </c>
-      <c r="T2" s="25">
+      <c r="V2" s="25">
         <v>1107</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>1108</v>
       </c>
-      <c r="V2" s="25">
+      <c r="X2" s="25">
         <v>1111</v>
       </c>
-      <c r="W2" s="25">
+      <c r="Y2" s="25">
         <v>1112</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Z2" s="25">
         <v>1114</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="AA2" s="25">
         <v>1119</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="AB2" s="25">
         <v>1121</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AC2" s="25">
         <v>1122</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AD2" s="25">
         <v>1125</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AE2" s="25">
         <v>1126</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AF2" s="25">
         <v>1128</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG2" s="25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4167,28 +4277,28 @@
       <c r="O3" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="P3" s="10">
+      <c r="R3" s="10">
         <v>17</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>17771</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3"/>
-      <c r="AD3" s="1" t="s">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3"/>
+      <c r="AF3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4212,27 +4322,27 @@
       <c r="K4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="P4" s="10">
+      <c r="R4" s="10">
         <v>18</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <v>17774</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="11"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4259,27 +4369,27 @@
       <c r="O5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="10">
         <v>19</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <v>17800</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="T5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4300,32 +4410,32 @@
       <c r="O6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="10">
+      <c r="R6" s="10">
         <v>20</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>17801</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AF6" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4348,28 +4458,28 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="10">
+      <c r="R7" s="10">
         <v>21</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>17810</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7"/>
-      <c r="AD7" s="11" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7"/>
+      <c r="AF7" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4390,30 +4500,30 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="10">
+      <c r="R8" s="10">
         <v>22</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <v>17834</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8"/>
-      <c r="AD8" s="1" t="s">
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8"/>
+      <c r="AF8" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4432,25 +4542,25 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="10">
+      <c r="R9" s="10">
         <v>23</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <v>17851</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9"/>
-    </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4469,30 +4579,30 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="10">
+      <c r="R10" s="10">
         <v>24</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>17862</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="AD10" s="26" t="s">
+      <c r="AF10" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -4511,31 +4621,31 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="10">
+      <c r="R11" s="10">
         <v>25</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <v>17865</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="T11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="U11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="19"/>
+      <c r="W11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="26" t="s">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11"/>
-    </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA11" s="7"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -4562,25 +4672,25 @@
       <c r="O12" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="P12" s="10">
+      <c r="R12" s="10">
         <v>26</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <v>17880</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="T12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12"/>
-    </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -4601,17 +4711,17 @@
       <c r="O13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="10">
         <v>27</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="S13" s="13">
         <v>17903</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="T13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
@@ -4627,8 +4737,10 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="17"/>
-    </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -4649,30 +4761,30 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="10">
+      <c r="R14" s="10">
         <v>29</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <v>17928</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="T14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14"/>
-      <c r="AD14" s="11" t="s">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14"/>
+      <c r="AF14" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -4697,25 +4809,25 @@
       <c r="O15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="P15" s="10">
+      <c r="R15" s="10">
         <v>30</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="S15" s="4">
         <v>17953</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="T15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15"/>
-    </row>
-    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:37" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -4744,29 +4856,29 @@
       <c r="O16" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="10">
+      <c r="R16" s="10">
         <v>31</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>17965</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -4787,29 +4899,29 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="10">
+      <c r="R17" s="10">
         <v>32</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>17985</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="V17" s="11"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -4833,32 +4945,766 @@
       <c r="O18" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AC18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="18:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.15">
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="18:18" x14ac:dyDescent="0.15">
-      <c r="R36" s="6"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="20:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AK36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="5.25" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1"/>
+    <col min="19" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="6.625" customWidth="1"/>
+    <col min="24" max="25" width="5.875" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="5.75" style="25" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="25" customWidth="1"/>
+    <col min="29" max="30" width="6" customWidth="1"/>
+    <col min="31" max="31" width="5.125" customWidth="1"/>
+    <col min="32" max="32" width="11.25" customWidth="1"/>
+    <col min="33" max="34" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="25"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="U1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="AA1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="U2" s="34">
+        <v>1202</v>
+      </c>
+      <c r="V2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+    </row>
+    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>17507</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="O3" s="11"/>
+      <c r="R3" s="40">
+        <v>17</v>
+      </c>
+      <c r="S3" s="36">
+        <v>17771</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>17510</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="R4" s="40">
+        <v>18</v>
+      </c>
+      <c r="S4" s="36">
+        <v>17774</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35">
+        <v>17513</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="O5" s="7"/>
+      <c r="R5" s="40">
+        <v>19</v>
+      </c>
+      <c r="S5" s="36">
+        <v>17800</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>17520</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="R6" s="40">
+        <v>20</v>
+      </c>
+      <c r="S6" s="35">
+        <v>17801</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="26"/>
+      <c r="AF6" s="26"/>
+    </row>
+    <row r="7" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>17551</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="O7" s="7"/>
+      <c r="R7" s="40">
+        <v>21</v>
+      </c>
+      <c r="S7" s="36">
+        <v>17810</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>17552</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="R8" s="40">
+        <v>22</v>
+      </c>
+      <c r="S8" s="35">
+        <v>17834</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>17567</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="R9" s="40">
+        <v>23</v>
+      </c>
+      <c r="S9" s="36">
+        <v>17851</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36">
+        <v>17575</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="R10" s="40">
+        <v>24</v>
+      </c>
+      <c r="S10" s="36">
+        <v>17862</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="26"/>
+      <c r="AF10" s="26"/>
+    </row>
+    <row r="11" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36">
+        <v>17614</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="R11" s="40">
+        <v>25</v>
+      </c>
+      <c r="S11" s="36">
+        <v>17865</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="19"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
+        <v>17687</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="O12" s="11"/>
+      <c r="R12" s="40">
+        <v>26</v>
+      </c>
+      <c r="S12" s="36">
+        <v>17880</v>
+      </c>
+      <c r="T12" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
+        <v>17719</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="40">
+        <v>27</v>
+      </c>
+      <c r="S13" s="42">
+        <v>17903</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36">
+        <v>17725</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="R14" s="40">
+        <v>28</v>
+      </c>
+      <c r="S14" s="36">
+        <v>17928</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14"/>
+      <c r="AF14" s="11"/>
+    </row>
+    <row r="15" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35">
+        <v>17741</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="R15" s="40">
+        <v>29</v>
+      </c>
+      <c r="S15" s="35">
+        <v>17953</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:37" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35">
+        <v>17746</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="R16" s="40">
+        <v>30</v>
+      </c>
+      <c r="S16" s="36">
+        <v>17965</v>
+      </c>
+      <c r="T16" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="26"/>
+    </row>
+    <row r="17" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36">
+        <v>17753</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="R17" s="40">
+        <v>31</v>
+      </c>
+      <c r="S17" s="35">
+        <v>17985</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35">
+        <v>17754</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="11"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="20:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.15">
+      <c r="T36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="8175" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="210">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1582,11 +1582,40 @@
     <t>トン　ヌ　ゴク　ミ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>嶋田</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を4つ迄は1列に、5つ以降は2列目に表示させたい。</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マデ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レツメ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2775,9 +2804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2788,7 +2817,7 @@
     <col min="4" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
@@ -4056,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -4984,11 +5013,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AK36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4996,8 +5025,8 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="25" customWidth="1"/>
@@ -5012,20 +5041,27 @@
     <col min="19" max="19" width="6.75" customWidth="1"/>
     <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.875" customWidth="1"/>
-    <col min="22" max="22" width="5.625" customWidth="1"/>
-    <col min="23" max="23" width="6.625" customWidth="1"/>
-    <col min="24" max="25" width="5.875" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="27" width="5.75" style="25" customWidth="1"/>
-    <col min="28" max="28" width="12.5" style="25" customWidth="1"/>
-    <col min="29" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="5.125" customWidth="1"/>
-    <col min="32" max="32" width="11.25" customWidth="1"/>
-    <col min="33" max="34" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="5.875" customWidth="1"/>
+    <col min="23" max="23" width="5.625" customWidth="1"/>
+    <col min="24" max="24" width="6.625" customWidth="1"/>
+    <col min="25" max="26" width="5.875" customWidth="1"/>
+    <col min="27" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="25" customWidth="1"/>
+    <col min="29" max="29" width="12.5" style="25" customWidth="1"/>
+    <col min="30" max="31" width="6" customWidth="1"/>
+    <col min="32" max="32" width="5.125" customWidth="1"/>
+    <col min="33" max="33" width="11.25" customWidth="1"/>
+    <col min="34" max="35" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
       <c r="F1" s="25"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -5039,18 +5075,25 @@
       <c r="U1" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="25"/>
+      <c r="V1" t="s">
+        <v>208</v>
+      </c>
       <c r="Y1" s="25"/>
-      <c r="AA1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="Z1" s="25"/>
+      <c r="AB1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
-    </row>
-    <row r="2" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="34">
+        <v>1202</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1203</v>
+      </c>
       <c r="F2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -5062,17 +5105,20 @@
       <c r="U2" s="34">
         <v>1202</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="V2" s="25">
+        <v>1203</v>
+      </c>
+      <c r="W2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
-      <c r="AC2" s="25"/>
+      <c r="AA2" s="25"/>
       <c r="AD2" s="25"/>
       <c r="AE2" s="25"/>
       <c r="AF2" s="25"/>
       <c r="AG2" s="25"/>
-    </row>
-    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH2" s="25"/>
+    </row>
+    <row r="3" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5102,15 +5148,16 @@
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3"/>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:37" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="7"/>
+      <c r="AC3"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -5141,14 +5188,15 @@
         <v>116</v>
       </c>
       <c r="V4" s="11"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4"/>
+    </row>
+    <row r="5" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -5180,14 +5228,15 @@
         <v>140</v>
       </c>
       <c r="V5" s="11"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5"/>
+    </row>
+    <row r="6" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -5219,15 +5268,16 @@
         <v>139</v>
       </c>
       <c r="V6" s="11"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="26"/>
-      <c r="AF6" s="26"/>
-    </row>
-    <row r="7" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="26"/>
+      <c r="AG6" s="26"/>
+    </row>
+    <row r="7" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -5257,15 +5307,16 @@
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7"/>
-      <c r="AF7" s="11"/>
-    </row>
-    <row r="8" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -5297,15 +5348,16 @@
         <v>138</v>
       </c>
       <c r="V8" s="11"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB8" s="7"/>
+      <c r="AC8"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -5335,14 +5387,15 @@
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB9" s="7"/>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5372,15 +5425,16 @@
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="26"/>
-      <c r="AF10" s="26"/>
-    </row>
-    <row r="11" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="26"/>
+      <c r="AG10" s="26"/>
+    </row>
+    <row r="11" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -5412,14 +5466,15 @@
         <v>143</v>
       </c>
       <c r="V11" s="19"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11"/>
+    </row>
+    <row r="12" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -5449,14 +5504,15 @@
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB12" s="7"/>
+      <c r="AC12"/>
+    </row>
+    <row r="13" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -5475,8 +5531,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="40">
         <v>27</v>
       </c>
@@ -5503,8 +5559,9 @@
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
-    </row>
-    <row r="14" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL13" s="17"/>
+    </row>
+    <row r="14" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -5536,15 +5593,16 @@
         <v>133</v>
       </c>
       <c r="V14" s="11"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14"/>
-      <c r="AF14" s="11"/>
-    </row>
-    <row r="15" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB14" s="7"/>
+      <c r="AC14"/>
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -5555,7 +5613,9 @@
         <v>40</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5574,14 +5634,15 @@
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="7"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:37" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB15" s="7"/>
+      <c r="AC15"/>
+    </row>
+    <row r="16" spans="1:38" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -5613,14 +5674,15 @@
         <v>136</v>
       </c>
       <c r="V16" s="11"/>
-      <c r="W16" s="7"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="26"/>
-    </row>
-    <row r="17" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="26"/>
+    </row>
+    <row r="17" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -5652,14 +5714,15 @@
         <v>116</v>
       </c>
       <c r="V17" s="11"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -5679,26 +5742,27 @@
       <c r="K18" s="11"/>
       <c r="N18" s="7"/>
       <c r="O18" s="11"/>
-      <c r="X18" s="25"/>
+      <c r="V18" s="25"/>
       <c r="Y18" s="25"/>
-      <c r="AA18" s="7"/>
+      <c r="Z18" s="25"/>
       <c r="AB18" s="7"/>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AC18" s="7"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="20:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="20:20" x14ac:dyDescent="0.15">
       <c r="T35" s="6"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -2,27 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6270" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
     <sheet name="PM10月" sheetId="4" r:id="rId2"/>
     <sheet name="AM11月" sheetId="1" r:id="rId3"/>
     <sheet name="PM11月" sheetId="3" r:id="rId4"/>
-    <sheet name="PM12月 " sheetId="6" r:id="rId5"/>
+    <sheet name="AM12月" sheetId="7" r:id="rId5"/>
+    <sheet name="PM12月 " sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
+    <definedName name="見出しの調整" localSheetId="4">AM12月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="223">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1611,11 +1613,120 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メニュー修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページレイアウト
+統一</t>
+    <rPh sb="9" eb="11">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部分の統一</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル、見だしなどのち調整</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ修正</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真の配置を
+テーブル設定で。
+Display:flexが効かない</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダー整理</t>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起こす</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1691,7 +1802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,6 +1839,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1743,7 +1860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,9 +1972,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,11 +1981,35 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4085,9 +4223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4740,8 +4878,8 @@
       <c r="O13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="10">
         <v>27</v>
       </c>
@@ -5013,11 +5151,588 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1204</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1204</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AI36"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5025,524 +5740,606 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="25" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="5.25" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="17" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.875" customWidth="1"/>
-    <col min="22" max="22" width="5.875" customWidth="1"/>
-    <col min="23" max="23" width="5.625" customWidth="1"/>
-    <col min="24" max="24" width="6.625" customWidth="1"/>
-    <col min="25" max="26" width="5.875" customWidth="1"/>
-    <col min="27" max="27" width="9.5" customWidth="1"/>
-    <col min="28" max="28" width="5.75" style="25" customWidth="1"/>
-    <col min="29" max="29" width="12.5" style="25" customWidth="1"/>
-    <col min="30" max="31" width="6" customWidth="1"/>
-    <col min="32" max="32" width="5.125" customWidth="1"/>
-    <col min="33" max="33" width="11.25" customWidth="1"/>
-    <col min="34" max="35" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="41" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="41" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" customWidth="1"/>
+    <col min="20" max="20" width="5.625" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="25" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1"/>
+    <col min="25" max="25" width="5.875" customWidth="1"/>
+    <col min="26" max="26" width="5.625" customWidth="1"/>
+    <col min="27" max="27" width="6.625" customWidth="1"/>
+    <col min="28" max="29" width="5.875" customWidth="1"/>
+    <col min="30" max="30" width="9.5" customWidth="1"/>
+    <col min="31" max="31" width="5.75" style="25" customWidth="1"/>
+    <col min="32" max="32" width="12.5" style="25" customWidth="1"/>
+    <col min="33" max="34" width="6" customWidth="1"/>
+    <col min="35" max="35" width="5.125" customWidth="1"/>
+    <col min="36" max="36" width="11.25" customWidth="1"/>
+    <col min="37" max="38" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="33" t="s">
         <v>200</v>
       </c>
       <c r="E1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="I1" s="3"/>
+      <c r="F1" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="33" t="s">
+      <c r="N1" s="40"/>
+      <c r="P1" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Q1" t="s">
         <v>208</v>
       </c>
-      <c r="Y1" s="25"/>
+      <c r="R1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="Y1" s="3"/>
       <c r="Z1" s="25"/>
+      <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF1"/>
+    </row>
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="34">
         <v>1202</v>
       </c>
       <c r="E2" s="25">
         <v>1203</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="F2" s="25">
+        <v>1205</v>
+      </c>
+      <c r="H2" s="34">
+        <f>D2+7</f>
+        <v>1209</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1210</v>
+      </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="U2" s="34">
+      <c r="P2" s="34">
         <v>1202</v>
       </c>
-      <c r="V2" s="25">
+      <c r="Q2" s="25">
         <v>1203</v>
       </c>
+      <c r="R2" s="25">
+        <v>1205</v>
+      </c>
+      <c r="T2" s="34">
+        <f>P2+7</f>
+        <v>1209</v>
+      </c>
+      <c r="U2" s="25">
+        <v>1210</v>
+      </c>
+      <c r="V2" s="25"/>
       <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-    </row>
-    <row r="3" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="35">
         <v>17507</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="O3" s="11"/>
-      <c r="R3" s="40">
+      <c r="L3" s="7"/>
+      <c r="M3" s="39">
         <v>17</v>
       </c>
-      <c r="S3" s="36">
+      <c r="N3" s="42">
         <v>17771</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="O3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="P3" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:38" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD3" s="1"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="35">
         <v>17510</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="26"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
-      <c r="R4" s="40">
+      <c r="L4" s="26"/>
+      <c r="M4" s="39">
         <v>18</v>
       </c>
-      <c r="S4" s="36">
+      <c r="N4" s="42">
         <v>17774</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="O4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y4" s="26"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="35">
         <v>17513</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="26"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
-      <c r="O5" s="7"/>
-      <c r="R5" s="40">
+      <c r="L5" s="26"/>
+      <c r="M5" s="39">
         <v>19</v>
       </c>
-      <c r="S5" s="36">
+      <c r="N5" s="42">
         <v>17800</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="O5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="26"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="36">
         <v>17520</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="R6" s="40">
+      <c r="L6" s="7"/>
+      <c r="M6" s="39">
         <v>20</v>
       </c>
-      <c r="S6" s="35">
+      <c r="N6" s="44">
         <v>17801</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="O6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="26"/>
-      <c r="AG6" s="26"/>
-    </row>
-    <row r="7" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="36">
         <v>17551</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="O7" s="7"/>
-      <c r="R7" s="40">
+      <c r="L7" s="11"/>
+      <c r="M7" s="39">
         <v>21</v>
       </c>
-      <c r="S7" s="36">
+      <c r="N7" s="42">
         <v>17810</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="O7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7"/>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="36">
         <v>17552</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="R8" s="40">
+      <c r="L8" s="7"/>
+      <c r="M8" s="39">
         <v>22</v>
       </c>
-      <c r="S8" s="35">
+      <c r="N8" s="44">
         <v>17834</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="O8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD8" s="1"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="36">
         <v>17567</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="R9" s="40">
+      <c r="L9" s="7"/>
+      <c r="M9" s="39">
         <v>23</v>
       </c>
-      <c r="S9" s="36">
+      <c r="N9" s="42">
         <v>17851</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="O9" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9"/>
-    </row>
-    <row r="10" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE9"/>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="36">
         <v>17575</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="R10" s="40">
+      <c r="L10" s="7"/>
+      <c r="M10" s="39">
         <v>24</v>
       </c>
-      <c r="S10" s="36">
+      <c r="N10" s="42">
         <v>17862</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="O10" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="26"/>
-      <c r="AG10" s="26"/>
-    </row>
-    <row r="11" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="36">
         <v>17614</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="19"/>
       <c r="F11" s="11"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="R11" s="40">
+      <c r="L11" s="7"/>
+      <c r="M11" s="39">
         <v>25</v>
       </c>
-      <c r="S11" s="36">
+      <c r="N11" s="42">
         <v>17865</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="O11" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="11"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11"/>
-    </row>
-    <row r="12" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="35">
         <v>17687</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="O12" s="11"/>
-      <c r="R12" s="40">
+      <c r="L12" s="7"/>
+      <c r="M12" s="39">
         <v>26</v>
       </c>
-      <c r="S12" s="36">
+      <c r="N12" s="42">
         <v>17880</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="O12" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="36">
         <v>17719</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="40">
+      <c r="L13" s="7"/>
+      <c r="M13" s="39">
         <v>27</v>
       </c>
-      <c r="S13" s="42">
+      <c r="N13" s="47">
         <v>17903</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="O13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -5557,99 +6354,104 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-    </row>
-    <row r="14" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="36">
         <v>17725</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="R14" s="40">
+      <c r="L14" s="7"/>
+      <c r="M14" s="39">
         <v>28</v>
       </c>
-      <c r="S14" s="36">
+      <c r="N14" s="42">
         <v>17928</v>
       </c>
-      <c r="T14" s="38" t="s">
+      <c r="O14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="P14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14"/>
-      <c r="AG14" s="11"/>
-    </row>
-    <row r="15" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD14" s="11"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+    </row>
+    <row r="15" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="35">
         <v>17741</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="R15" s="40">
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="39">
         <v>29</v>
       </c>
-      <c r="S15" s="35">
+      <c r="N15" s="44">
         <v>17953</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="O15" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15"/>
-    </row>
-    <row r="16" spans="1:38" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE15"/>
+      <c r="AF15"/>
+    </row>
+    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="35">
         <v>17746</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="11"/>
@@ -5660,27 +6462,31 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="R16" s="40">
+      <c r="L16" s="11"/>
+      <c r="M16" s="39">
         <v>30</v>
       </c>
-      <c r="S16" s="36">
+      <c r="N16" s="42">
         <v>17965</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="O16" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="V16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="11"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="26"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="26"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
     </row>
     <row r="17" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
@@ -5689,38 +6495,42 @@
       <c r="B17" s="36">
         <v>17753</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="R17" s="40">
+      <c r="L17" s="7"/>
+      <c r="M17" s="39">
         <v>31</v>
       </c>
-      <c r="S17" s="35">
+      <c r="N17" s="44">
         <v>17985</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="O17" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
     </row>
     <row r="18" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
@@ -5729,29 +6539,47 @@
       <c r="B18" s="35">
         <v>17754</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11"/>
+      <c r="Q18" s="25"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AB18" s="7"/>
+      <c r="W18" s="25"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
       <c r="AC18" s="7"/>
-      <c r="AF18" s="7"/>
-    </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+    </row>
+    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+    </row>
     <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5763,12 +6591,12 @@
     <row r="30" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="20:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.15">
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.15">
-      <c r="T36" s="6"/>
+    <row r="33" spans="23:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8415" windowHeight="7245" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="227">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1719,6 +1720,31 @@
     <t>携帯</t>
     <rPh sb="0" eb="2">
       <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1204　岡本</t>
+    <rPh sb="5" eb="7">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlコーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルの調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5153,8 +5179,8 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5180,11 +5206,11 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D2">
-        <v>1204</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1204</v>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" t="s">
+        <v>223</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -5212,7 +5238,7 @@
       <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="26" t="s">
         <v>80</v>
       </c>
       <c r="M3" s="27"/>
@@ -5230,7 +5256,7 @@
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="7"/>
@@ -5728,11 +5754,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5746,36 +5772,37 @@
     <col min="7" max="7" width="10.625" style="25" customWidth="1"/>
     <col min="8" max="8" width="5.625" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="41" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="5.625" customWidth="1"/>
-    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="5.625" customWidth="1"/>
-    <col min="21" max="21" width="5.625" style="25" customWidth="1"/>
-    <col min="22" max="22" width="5.625" customWidth="1"/>
-    <col min="23" max="23" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.875" customWidth="1"/>
-    <col min="25" max="25" width="5.875" customWidth="1"/>
-    <col min="26" max="26" width="5.625" customWidth="1"/>
-    <col min="27" max="27" width="6.625" customWidth="1"/>
-    <col min="28" max="29" width="5.875" customWidth="1"/>
-    <col min="30" max="30" width="9.5" customWidth="1"/>
-    <col min="31" max="31" width="5.75" style="25" customWidth="1"/>
-    <col min="32" max="32" width="12.5" style="25" customWidth="1"/>
-    <col min="33" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="5.125" customWidth="1"/>
-    <col min="36" max="36" width="11.25" customWidth="1"/>
-    <col min="37" max="38" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="13" max="13" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="41" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="10.625" customWidth="1"/>
+    <col min="21" max="21" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="25" customWidth="1"/>
+    <col min="23" max="23" width="5.625" customWidth="1"/>
+    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.875" customWidth="1"/>
+    <col min="26" max="26" width="5.875" customWidth="1"/>
+    <col min="27" max="27" width="5.625" customWidth="1"/>
+    <col min="28" max="28" width="6.625" customWidth="1"/>
+    <col min="29" max="30" width="5.875" customWidth="1"/>
+    <col min="31" max="31" width="9.5" customWidth="1"/>
+    <col min="32" max="32" width="5.75" style="25" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="25" customWidth="1"/>
+    <col min="34" max="35" width="6" customWidth="1"/>
+    <col min="36" max="36" width="5.125" customWidth="1"/>
+    <col min="37" max="37" width="11.25" customWidth="1"/>
+    <col min="38" max="39" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="45" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="33" t="s">
         <v>200</v>
       </c>
@@ -5785,13 +5812,18 @@
       <c r="F1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
       </c>
       <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="N1" s="40"/>
@@ -5804,24 +5836,29 @@
       <c r="R1" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>200</v>
+      </c>
+      <c r="T1" t="s">
+        <v>144</v>
       </c>
       <c r="U1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="25"/>
+      <c r="V1" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
       <c r="AF1"/>
-    </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG1"/>
+    </row>
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="34">
         <v>1202</v>
       </c>
@@ -5831,15 +5868,21 @@
       <c r="F2" s="25">
         <v>1205</v>
       </c>
-      <c r="H2" s="34">
+      <c r="G2" s="34">
         <f>D2+7</f>
         <v>1209</v>
       </c>
+      <c r="H2" s="25">
+        <v>1210</v>
+      </c>
       <c r="I2" s="25">
-        <v>1210</v>
-      </c>
-      <c r="K2" s="25"/>
+        <v>1213</v>
+      </c>
+      <c r="J2" s="25">
+        <v>1216</v>
+      </c>
       <c r="L2" s="25"/>
+      <c r="N2" s="41"/>
       <c r="P2" s="34">
         <v>1202</v>
       </c>
@@ -5849,14 +5892,19 @@
       <c r="R2" s="25">
         <v>1205</v>
       </c>
-      <c r="T2" s="34">
+      <c r="S2" s="34">
         <f>P2+7</f>
         <v>1209</v>
       </c>
+      <c r="T2" s="25">
+        <v>1210</v>
+      </c>
       <c r="U2" s="25">
-        <v>1210</v>
-      </c>
-      <c r="V2" s="25"/>
+        <v>1213</v>
+      </c>
+      <c r="V2" s="25">
+        <v>1216</v>
+      </c>
       <c r="W2" s="25"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
@@ -5866,8 +5914,9 @@
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
       <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG2"/>
+    </row>
+    <row r="3" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5882,10 +5931,10 @@
       <c r="F3" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>221</v>
       </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5906,18 +5955,17 @@
       <c r="R3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3"/>
+      <c r="AC3" s="1"/>
       <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG3"/>
+    </row>
+    <row r="4" spans="1:34" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -5932,8 +5980,8 @@
       <c r="F4" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -5952,17 +6000,16 @@
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="26"/>
-      <c r="AE4"/>
+      <c r="X4" s="26"/>
       <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG4"/>
+    </row>
+    <row r="5" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -5975,8 +6022,8 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -5995,17 +6042,16 @@
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="26"/>
-      <c r="AE5"/>
+      <c r="X5" s="26"/>
       <c r="AF5"/>
-    </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG5"/>
+    </row>
+    <row r="6" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -6018,8 +6064,8 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -6038,19 +6084,18 @@
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6"/>
+      <c r="Y6" s="26"/>
+      <c r="AC6" s="26"/>
       <c r="AF6"/>
-    </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG6"/>
+    </row>
+    <row r="7" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6063,8 +6108,8 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -6081,18 +6126,17 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7"/>
+      <c r="X7" s="11"/>
+      <c r="AC7" s="11"/>
       <c r="AF7"/>
-    </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG7"/>
+    </row>
+    <row r="8" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -6105,8 +6149,8 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -6125,18 +6169,17 @@
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8"/>
+      <c r="AC8" s="1"/>
       <c r="AF8"/>
-    </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8"/>
+    </row>
+    <row r="9" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -6149,8 +6192,8 @@
       <c r="D9" s="11"/>
       <c r="E9" s="19"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -6167,17 +6210,16 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="AE9"/>
       <c r="AF9"/>
-    </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6190,8 +6232,8 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6210,19 +6252,18 @@
       <c r="R10" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10"/>
+      <c r="Y10" s="26"/>
+      <c r="AC10" s="26"/>
       <c r="AF10"/>
-    </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6235,8 +6276,8 @@
       <c r="D11" s="11"/>
       <c r="E11" s="19"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -6256,16 +6297,17 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="7"/>
-      <c r="AE11"/>
+      <c r="V11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="W11" s="26"/>
+      <c r="X11" s="7"/>
       <c r="AF11"/>
-    </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG11"/>
+    </row>
+    <row r="12" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6278,8 +6320,8 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -6296,17 +6338,16 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="AE12"/>
       <c r="AF12"/>
-    </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6319,9 +6360,9 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -6338,8 +6379,8 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="7"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -6353,9 +6394,8 @@
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-    </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6368,8 +6408,8 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -6388,18 +6428,17 @@
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14"/>
+      <c r="AC14" s="11"/>
       <c r="AF14"/>
-    </row>
-    <row r="15" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6416,10 +6455,12 @@
       <c r="F15" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="27" t="s">
+        <v>226</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="11"/>
       <c r="M15" s="39">
@@ -6434,17 +6475,16 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="AE15"/>
       <c r="AF15"/>
-    </row>
-    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6459,7 +6499,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -6477,18 +6517,17 @@
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="26"/>
-      <c r="AE16"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26"/>
       <c r="AF16"/>
-    </row>
-    <row r="17" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6501,8 +6540,8 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -6521,18 +6560,17 @@
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="1"/>
-      <c r="AE17"/>
+      <c r="Y17" s="1"/>
       <c r="AF17"/>
-    </row>
-    <row r="18" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6545,58 +6583,58 @@
       <c r="D18" s="11"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="11"/>
+      <c r="N18" s="41"/>
+      <c r="P18"/>
       <c r="Q18" s="25"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="25"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AE18"/>
+      <c r="AB18" s="7"/>
       <c r="AF18"/>
-    </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Y19" s="25"/>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z19" s="25"/>
-      <c r="AE19"/>
+      <c r="AA19" s="25"/>
       <c r="AF19"/>
-    </row>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Y20" s="25"/>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z20" s="25"/>
-      <c r="AE20"/>
+      <c r="AA20" s="25"/>
       <c r="AF20"/>
-    </row>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Y21" s="25"/>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z21" s="25"/>
-      <c r="AE21"/>
+      <c r="AA21" s="25"/>
       <c r="AF21"/>
-    </row>
-    <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="23:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.15">
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.15">
-      <c r="W36" s="6"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="24:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8415" windowHeight="7245" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <definedName name="見出しの調整" localSheetId="4">AM12月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="229">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1748,11 +1747,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>嶋田</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽が出ない</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5754,11 +5770,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5773,7 +5789,7 @@
     <col min="8" max="8" width="5.625" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="25" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.875" customWidth="1"/>
     <col min="13" max="13" width="3.75" customWidth="1"/>
     <col min="14" max="14" width="6.375" customWidth="1"/>
@@ -5785,24 +5801,25 @@
     <col min="20" max="20" width="10.625" customWidth="1"/>
     <col min="21" max="21" width="5.625" customWidth="1"/>
     <col min="22" max="22" width="11.375" style="25" customWidth="1"/>
-    <col min="23" max="23" width="5.625" customWidth="1"/>
-    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.875" customWidth="1"/>
-    <col min="26" max="26" width="5.875" customWidth="1"/>
-    <col min="27" max="27" width="5.625" customWidth="1"/>
-    <col min="28" max="28" width="6.625" customWidth="1"/>
-    <col min="29" max="30" width="5.875" customWidth="1"/>
-    <col min="31" max="31" width="9.5" customWidth="1"/>
-    <col min="32" max="32" width="5.75" style="25" customWidth="1"/>
-    <col min="33" max="33" width="12.5" style="25" customWidth="1"/>
-    <col min="34" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="5.125" customWidth="1"/>
-    <col min="37" max="37" width="11.25" customWidth="1"/>
-    <col min="38" max="39" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="45" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" customWidth="1"/>
+    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="5.875" customWidth="1"/>
+    <col min="28" max="28" width="5.625" customWidth="1"/>
+    <col min="29" max="29" width="6.625" customWidth="1"/>
+    <col min="30" max="31" width="5.875" customWidth="1"/>
+    <col min="32" max="32" width="9.5" customWidth="1"/>
+    <col min="33" max="33" width="5.75" style="25" customWidth="1"/>
+    <col min="34" max="34" width="12.5" style="25" customWidth="1"/>
+    <col min="35" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="5.125" customWidth="1"/>
+    <col min="38" max="38" width="11.25" customWidth="1"/>
+    <col min="39" max="40" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="33" t="s">
         <v>200</v>
       </c>
@@ -5824,7 +5841,9 @@
       <c r="J1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="L1" s="3"/>
       <c r="N1" s="40"/>
       <c r="P1" s="33" t="s">
@@ -5848,17 +5867,20 @@
       <c r="V1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="25"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AF1"/>
+      <c r="AE1" s="3"/>
       <c r="AG1"/>
-    </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="34">
         <v>1202</v>
       </c>
@@ -5880,6 +5902,9 @@
       </c>
       <c r="J2" s="25">
         <v>1216</v>
+      </c>
+      <c r="K2" s="25">
+        <v>1220</v>
       </c>
       <c r="L2" s="25"/>
       <c r="N2" s="41"/>
@@ -5905,7 +5930,9 @@
       <c r="V2" s="25">
         <v>1216</v>
       </c>
-      <c r="W2" s="25"/>
+      <c r="W2" s="25">
+        <v>1220</v>
+      </c>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
@@ -5913,10 +5940,11 @@
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
-      <c r="AF2"/>
+      <c r="AE2" s="25"/>
       <c r="AG2"/>
-    </row>
-    <row r="3" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5961,11 +5989,12 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="AC3" s="1"/>
-      <c r="AF3"/>
+      <c r="Y3" s="7"/>
+      <c r="AD3" s="1"/>
       <c r="AG3"/>
-    </row>
-    <row r="4" spans="1:34" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -6004,12 +6033,13 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="26"/>
-      <c r="AF4"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="26"/>
       <c r="AG4"/>
-    </row>
-    <row r="5" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH4"/>
+    </row>
+    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6046,12 +6076,13 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="26"/>
-      <c r="AF5"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="26"/>
       <c r="AG5"/>
-    </row>
-    <row r="6" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH5"/>
+    </row>
+    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -6090,12 +6121,13 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AF6"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="26"/>
+      <c r="AD6" s="26"/>
       <c r="AG6"/>
-    </row>
-    <row r="7" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH6"/>
+    </row>
+    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6130,13 +6162,16 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AF7"/>
+      <c r="W7" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="11"/>
+      <c r="AD7" s="11"/>
       <c r="AG7"/>
-    </row>
-    <row r="8" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH7"/>
+    </row>
+    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -6175,11 +6210,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="AC8" s="1"/>
-      <c r="AF8"/>
+      <c r="Y8" s="7"/>
+      <c r="AD8" s="1"/>
       <c r="AG8"/>
-    </row>
-    <row r="9" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH8"/>
+    </row>
+    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -6216,10 +6252,11 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="AF9"/>
+      <c r="Y9" s="7"/>
       <c r="AG9"/>
-    </row>
-    <row r="10" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH9"/>
+    </row>
+    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6258,12 +6295,13 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AF10"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="26"/>
+      <c r="AD10" s="26"/>
       <c r="AG10"/>
-    </row>
-    <row r="11" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6302,12 +6340,13 @@
       <c r="V11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="7"/>
-      <c r="AF11"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="7"/>
       <c r="AG11"/>
-    </row>
-    <row r="12" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH11"/>
+    </row>
+    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6344,10 +6383,11 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="AF12"/>
+      <c r="Y12" s="7"/>
       <c r="AG12"/>
-    </row>
-    <row r="13" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH12"/>
+    </row>
+    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6382,7 +6422,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="7"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
@@ -6394,8 +6434,9 @@
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
-    </row>
-    <row r="14" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6434,11 +6475,12 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="AC14" s="11"/>
-      <c r="AF14"/>
+      <c r="Y14" s="7"/>
+      <c r="AD14" s="11"/>
       <c r="AG14"/>
-    </row>
-    <row r="15" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6481,10 +6523,11 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="AF15"/>
+      <c r="Y15" s="7"/>
       <c r="AG15"/>
-    </row>
-    <row r="16" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH15"/>
+    </row>
+    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6521,13 +6564,14 @@
       <c r="T16" s="11"/>
       <c r="U16" s="7"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="26"/>
-      <c r="AF16"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="26"/>
       <c r="AG16"/>
-    </row>
-    <row r="17" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH16"/>
+    </row>
+    <row r="17" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6566,11 +6610,12 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="1"/>
-      <c r="AF17"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="1"/>
       <c r="AG17"/>
-    </row>
-    <row r="18" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH17"/>
+    </row>
+    <row r="18" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6594,47 +6639,48 @@
       <c r="S18" s="11"/>
       <c r="T18" s="7"/>
       <c r="U18" s="25"/>
-      <c r="X18" s="7"/>
+      <c r="W18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AF18"/>
+      <c r="Z18" s="7"/>
+      <c r="AC18" s="7"/>
       <c r="AG18"/>
-    </row>
-    <row r="19" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z19" s="25"/>
+      <c r="AH18"/>
+    </row>
+    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AA19" s="25"/>
-      <c r="AF19"/>
+      <c r="AB19" s="25"/>
       <c r="AG19"/>
-    </row>
-    <row r="20" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z20" s="25"/>
+      <c r="AH19"/>
+    </row>
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AA20" s="25"/>
-      <c r="AF20"/>
+      <c r="AB20" s="25"/>
       <c r="AG20"/>
-    </row>
-    <row r="21" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z21" s="25"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AA21" s="25"/>
-      <c r="AF21"/>
+      <c r="AB21" s="25"/>
       <c r="AG21"/>
-    </row>
-    <row r="22" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="24:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="24:24" x14ac:dyDescent="0.15">
-      <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="24:24" x14ac:dyDescent="0.15">
-      <c r="X36" s="6"/>
+      <c r="AH21"/>
+    </row>
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="25:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y35" s="6"/>
+    </row>
+    <row r="36" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="8775" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="PM11月" sheetId="3" r:id="rId4"/>
     <sheet name="AM12月" sheetId="7" r:id="rId5"/>
     <sheet name="PM12月 " sheetId="6" r:id="rId6"/>
+    <sheet name="AM１月" sheetId="8" r:id="rId7"/>
+    <sheet name="PM１月" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="4">AM12月!$L$3:$O$19</definedName>
+    <definedName name="見出しの調整" localSheetId="6">AM１月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="234">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1764,12 +1767,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テキストカラー
+コミット欄ダミー制作</t>
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ修正
+エラーチェック
+validation check</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssが複数作成はそのまま進行させる
+スライド設定</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodページ調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1843,6 +1891,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1902,7 +1958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2051,6 +2107,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5190,13 +5249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.499984740745262"/>
-  </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5240,7 +5296,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5767,12 +5823,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.499984740745262"/>
-  </sheetPr>
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
@@ -6687,4 +6740,1399 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="L1" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AI36"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="13" max="13" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="41" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="10.625" customWidth="1"/>
+    <col min="21" max="21" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="25" customWidth="1"/>
+    <col min="23" max="23" width="5.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" customWidth="1"/>
+    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="5.875" customWidth="1"/>
+    <col min="28" max="28" width="5.625" customWidth="1"/>
+    <col min="29" max="29" width="6.625" customWidth="1"/>
+    <col min="30" max="31" width="5.875" customWidth="1"/>
+    <col min="32" max="32" width="9.5" customWidth="1"/>
+    <col min="33" max="33" width="5.75" style="25" customWidth="1"/>
+    <col min="34" max="34" width="12.5" style="25" customWidth="1"/>
+    <col min="35" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="5.125" customWidth="1"/>
+    <col min="38" max="38" width="11.25" customWidth="1"/>
+    <col min="39" max="40" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="I1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="40"/>
+      <c r="P1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="N2" s="41"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>17507</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="39">
+        <v>17</v>
+      </c>
+      <c r="N3" s="42">
+        <v>17771</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="AD3" s="1"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>17510</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="39">
+        <v>18</v>
+      </c>
+      <c r="N4" s="42">
+        <v>17774</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="26"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+    </row>
+    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35">
+        <v>17513</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="39">
+        <v>19</v>
+      </c>
+      <c r="N5" s="42">
+        <v>17800</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="26"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+    </row>
+    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>17520</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="39">
+        <v>20</v>
+      </c>
+      <c r="N6" s="44">
+        <v>17801</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+    </row>
+    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>17551</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="39">
+        <v>21</v>
+      </c>
+      <c r="N7" s="42">
+        <v>17810</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+    </row>
+    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>17552</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="39">
+        <v>22</v>
+      </c>
+      <c r="N8" s="44">
+        <v>17834</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="AD8" s="1"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+    </row>
+    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>17567</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="39">
+        <v>23</v>
+      </c>
+      <c r="N9" s="42">
+        <v>17851</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+    </row>
+    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36">
+        <v>17575</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="39">
+        <v>24</v>
+      </c>
+      <c r="N10" s="42">
+        <v>17862</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36">
+        <v>17614</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="39">
+        <v>25</v>
+      </c>
+      <c r="N11" s="42">
+        <v>17865</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="7"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+    </row>
+    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
+        <v>17687</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="39">
+        <v>26</v>
+      </c>
+      <c r="N12" s="42">
+        <v>17880</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+    </row>
+    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
+        <v>17719</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="39">
+        <v>27</v>
+      </c>
+      <c r="N13" s="47">
+        <v>17903</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36">
+        <v>17725</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="39">
+        <v>28</v>
+      </c>
+      <c r="N14" s="42">
+        <v>17928</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="AD14" s="11"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35">
+        <v>17741</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="39">
+        <v>29</v>
+      </c>
+      <c r="N15" s="44">
+        <v>17953</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+    </row>
+    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35">
+        <v>17746</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="39">
+        <v>30</v>
+      </c>
+      <c r="N16" s="42">
+        <v>17965</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="26"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+    </row>
+    <row r="17" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36">
+        <v>17753</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="39">
+        <v>31</v>
+      </c>
+      <c r="N17" s="44">
+        <v>17985</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="1"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+    </row>
+    <row r="18" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35">
+        <v>17754</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="41"/>
+      <c r="P18"/>
+      <c r="Q18" s="25"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="25"/>
+      <c r="W18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+    </row>
+    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+    </row>
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+    </row>
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="25:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y35" s="6"/>
+    </row>
+    <row r="36" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="8775" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="8775" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="250">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1810,6 +1810,136 @@
   </si>
   <si>
     <t>foodページ調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページのマップ表示を整理</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページの展開</t>
+    <rPh sb="6" eb="8">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真にキャプションをつける</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画像のサイズ調整</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドサイズ調整</t>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶についてのページのテキストのwidth</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アコーディオン
+メニュー修正</t>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファーストビューのメインビジュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページにリンクボタンの設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめのnemページの写真の配置</t>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイメージの写真縦サイズ</t>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルのサイズ設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴの統一
+各ページのコメントのレイアウト</t>
+    <rPh sb="7" eb="9">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>about.htmlページの
+説明文のフォントサイズ</t>
+    <rPh sb="15" eb="18">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品説明文</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セツメイブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1958,7 +2088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2111,6 +2241,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6749,7 +6888,7 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -7321,11 +7460,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7333,36 +7472,21 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="25" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="3.75" customWidth="1"/>
     <col min="14" max="14" width="6.375" customWidth="1"/>
     <col min="15" max="15" width="15.625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="41" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
-    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="10.625" customWidth="1"/>
-    <col min="21" max="21" width="5.625" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="25" customWidth="1"/>
-    <col min="23" max="23" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" customWidth="1"/>
-    <col min="25" max="25" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.875" customWidth="1"/>
-    <col min="27" max="27" width="5.875" customWidth="1"/>
-    <col min="28" max="28" width="5.625" customWidth="1"/>
-    <col min="29" max="29" width="6.625" customWidth="1"/>
-    <col min="30" max="31" width="5.875" customWidth="1"/>
-    <col min="32" max="32" width="9.5" customWidth="1"/>
-    <col min="33" max="33" width="5.75" style="25" customWidth="1"/>
-    <col min="34" max="34" width="12.5" style="25" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="41" customWidth="1"/>
+    <col min="17" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="23" width="12.5" style="25" customWidth="1"/>
+    <col min="24" max="32" width="12.5" customWidth="1"/>
+    <col min="33" max="34" width="12.5" style="25" customWidth="1"/>
     <col min="35" max="36" width="6" customWidth="1"/>
     <col min="37" max="37" width="5.125" customWidth="1"/>
     <col min="38" max="38" width="11.25" customWidth="1"/>
@@ -7370,42 +7494,47 @@
     <col min="41" max="46" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="I1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="N1" s="40"/>
-      <c r="P1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" t="s">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="U1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="25"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
-    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="34"/>
@@ -7413,10 +7542,12 @@
       <c r="J2" s="25"/>
       <c r="L2" s="25"/>
       <c r="N2" s="41"/>
-      <c r="P2" s="34"/>
+      <c r="P2" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
       <c r="X2" s="25"/>
@@ -7426,11 +7557,10 @@
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -7458,21 +7588,22 @@
       <c r="O3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="49"/>
+      <c r="P3" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="AD3" s="1"/>
+      <c r="AC3" s="1"/>
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -7482,7 +7613,9 @@
       <c r="C4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="19"/>
@@ -7500,20 +7633,21 @@
       <c r="O4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>249</v>
+      </c>
       <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="26"/>
       <c r="AG4"/>
       <c r="AH4"/>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -7544,17 +7678,16 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="26"/>
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -7564,7 +7697,9 @@
       <c r="C6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -7582,22 +7717,23 @@
       <c r="O6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="26"/>
-      <c r="AD6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="AC6" s="26"/>
       <c r="AG6"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -7625,21 +7761,22 @@
       <c r="O7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="11"/>
+      <c r="AC7" s="11"/>
       <c r="AG7"/>
       <c r="AH7"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -7649,7 +7786,9 @@
       <c r="C8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -7670,18 +7809,17 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="AD8" s="1"/>
+      <c r="AC8" s="1"/>
       <c r="AG8"/>
       <c r="AH8"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -7711,18 +7849,17 @@
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
       <c r="AG9"/>
       <c r="AH9"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -7753,19 +7890,18 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="26"/>
-      <c r="AD10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="AC10" s="26"/>
       <c r="AG10"/>
       <c r="AH10"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -7793,20 +7929,21 @@
       <c r="O11" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="7"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="7"/>
       <c r="AG11"/>
       <c r="AH11"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -7816,7 +7953,9 @@
       <c r="C12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -7837,17 +7976,16 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
       <c r="AG12"/>
       <c r="AH12"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -7857,7 +7995,9 @@
       <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -7881,8 +8021,8 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
@@ -7894,9 +8034,8 @@
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-    </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -7906,7 +8045,9 @@
       <c r="C14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -7927,18 +8068,17 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="AD14" s="11"/>
+      <c r="AC14" s="11"/>
       <c r="AG14"/>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -7948,7 +8088,9 @@
       <c r="C15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -7969,17 +8111,16 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
       <c r="AG15"/>
       <c r="AH15"/>
     </row>
-    <row r="16" spans="1:35" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -7989,7 +8130,9 @@
       <c r="C16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="26" t="s">
+        <v>236</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -8007,21 +8150,22 @@
       <c r="O16" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="26"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26"/>
       <c r="AG16"/>
       <c r="AH16"/>
     </row>
-    <row r="17" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -8049,21 +8193,22 @@
       <c r="O17" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="1"/>
+      <c r="Y17" s="1"/>
       <c r="AG17"/>
       <c r="AH17"/>
     </row>
-    <row r="18" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -8082,53 +8227,152 @@
       <c r="K18" s="7"/>
       <c r="L18" s="11"/>
       <c r="N18" s="41"/>
-      <c r="P18"/>
-      <c r="Q18" s="25"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="7"/>
+      <c r="P18" s="25"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="25"/>
       <c r="U18" s="25"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AC18" s="7"/>
+      <c r="AB18" s="7"/>
       <c r="AG18"/>
       <c r="AH18"/>
     </row>
-    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P19"/>
+      <c r="U19" s="25"/>
+      <c r="W19"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
       <c r="AG19"/>
       <c r="AH19"/>
     </row>
     <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P20"/>
+      <c r="U20" s="25"/>
+      <c r="W20"/>
+      <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
       <c r="AG20"/>
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P21"/>
+      <c r="U21" s="25"/>
+      <c r="W21"/>
+      <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
       <c r="AG21"/>
       <c r="AH21"/>
     </row>
-    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="25:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="25:25" x14ac:dyDescent="0.15">
-      <c r="Y35" s="6"/>
-    </row>
-    <row r="36" spans="25:25" x14ac:dyDescent="0.15">
-      <c r="Y36" s="6"/>
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P22"/>
+      <c r="U22" s="25"/>
+      <c r="W22"/>
+      <c r="AF22" s="25"/>
+      <c r="AH22"/>
+    </row>
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P23"/>
+      <c r="U23" s="25"/>
+      <c r="W23"/>
+      <c r="AF23" s="25"/>
+      <c r="AH23"/>
+    </row>
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24"/>
+      <c r="U24" s="25"/>
+      <c r="W24"/>
+      <c r="AF24" s="25"/>
+      <c r="AH24"/>
+    </row>
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P25"/>
+      <c r="U25" s="25"/>
+      <c r="W25"/>
+      <c r="AF25" s="25"/>
+      <c r="AH25"/>
+    </row>
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P26"/>
+      <c r="U26" s="25"/>
+      <c r="W26"/>
+      <c r="AF26" s="25"/>
+      <c r="AH26"/>
+    </row>
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P27"/>
+      <c r="U27" s="25"/>
+      <c r="W27"/>
+      <c r="AF27" s="25"/>
+      <c r="AH27"/>
+    </row>
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P28"/>
+      <c r="U28" s="25"/>
+      <c r="W28"/>
+      <c r="AF28" s="25"/>
+      <c r="AH28"/>
+    </row>
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P29"/>
+      <c r="U29" s="25"/>
+      <c r="W29"/>
+      <c r="AF29" s="25"/>
+      <c r="AH29"/>
+    </row>
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P30"/>
+      <c r="U30" s="25"/>
+      <c r="W30"/>
+      <c r="AF30" s="25"/>
+      <c r="AH30"/>
+    </row>
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P31"/>
+      <c r="U31" s="25"/>
+      <c r="W31"/>
+      <c r="AF31" s="25"/>
+      <c r="AH31"/>
+    </row>
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P32"/>
+      <c r="U32" s="25"/>
+      <c r="W32"/>
+      <c r="AF32" s="25"/>
+      <c r="AH32"/>
+    </row>
+    <row r="33" spans="16:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P33"/>
+      <c r="U33" s="25"/>
+      <c r="W33"/>
+      <c r="AF33" s="25"/>
+      <c r="AH33"/>
+    </row>
+    <row r="34" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P34"/>
+      <c r="U34" s="25"/>
+      <c r="W34"/>
+      <c r="AF34" s="25"/>
+      <c r="AH34"/>
+    </row>
+    <row r="35" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P35"/>
+      <c r="U35" s="25"/>
+      <c r="W35"/>
+      <c r="X35" s="6"/>
+      <c r="AF35" s="25"/>
+      <c r="AH35"/>
+    </row>
+    <row r="36" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P36"/>
+      <c r="U36" s="25"/>
+      <c r="W36"/>
+      <c r="X36" s="6"/>
+      <c r="AF36" s="25"/>
+      <c r="AH36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="8775" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="8685" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -20,11 +20,14 @@
     <sheet name="PM12月 " sheetId="6" r:id="rId6"/>
     <sheet name="AM１月" sheetId="8" r:id="rId7"/>
     <sheet name="PM１月" sheetId="9" r:id="rId8"/>
+    <sheet name="AM2月" sheetId="10" r:id="rId9"/>
+    <sheet name="PM２月" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="4">AM12月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="6">AM１月!$L$3:$O$19</definedName>
+    <definedName name="見出しの調整" localSheetId="8">AM2月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">AM11月!$L$3:$O$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="282">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -1939,6 +1942,275 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0116</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライド挿入</t>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統トップページと
+サブページの
+タイトルの位置</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンリンク設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンリンク設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+説明文の位置</t>
+    <rPh sb="7" eb="10">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューページの
+レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタン配置
+の統一</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドの配置</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メニュー.ボタンの配置
+フォントサイズ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0116</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java　設定（スライダー）</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンダープレフィックス未設定
+IEのみで確認</t>
+    <rPh sb="11" eb="14">
+      <t>ミセッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブページの
+メニューデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上田先生修正分の
+説明
+margin、padding調整</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージンなど
+詳細チェック</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommendの
+商品説明文
+メニュー調整</t>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ
+JavaScript設定
+修正</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューページ
+修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0206</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページの
+リンクボタン</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドリンクページ
+修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトタイトル
+お店紹介ページ</t>
+    <rPh sb="9" eb="10">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル内文字の統一</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク不備
+ページ分け</t>
+    <rPh sb="3" eb="5">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク不備
+ページ分け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真サイズで
+メリハリ</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「やること」→「アクティビティ」
+ページ名変更</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2030,7 +2302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2073,6 +2345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2088,7 +2366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2250,6 +2528,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3178,6 +3465,906 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AH36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="25" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="41" customWidth="1"/>
+    <col min="17" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="23" width="12.5" style="25" customWidth="1"/>
+    <col min="24" max="32" width="12.5" customWidth="1"/>
+    <col min="33" max="34" width="12.5" style="25" customWidth="1"/>
+    <col min="35" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="5.125" customWidth="1"/>
+    <col min="38" max="38" width="11.25" customWidth="1"/>
+    <col min="39" max="40" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="N2" s="41"/>
+      <c r="P2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>17507</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="39">
+        <v>17</v>
+      </c>
+      <c r="N3" s="42">
+        <v>17771</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="AC3" s="1"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>17510</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="39">
+        <v>18</v>
+      </c>
+      <c r="N4" s="42">
+        <v>17774</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="26"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+    </row>
+    <row r="5" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35">
+        <v>17513</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="39">
+        <v>19</v>
+      </c>
+      <c r="N5" s="42">
+        <v>17800</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="26"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+    </row>
+    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>17520</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="39">
+        <v>20</v>
+      </c>
+      <c r="N6" s="44">
+        <v>17801</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+    </row>
+    <row r="7" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>17551</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="39">
+        <v>21</v>
+      </c>
+      <c r="N7" s="42">
+        <v>17810</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+    </row>
+    <row r="8" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>17552</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="39">
+        <v>22</v>
+      </c>
+      <c r="N8" s="44">
+        <v>17834</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="AC8" s="1"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+    </row>
+    <row r="9" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>17567</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="39">
+        <v>23</v>
+      </c>
+      <c r="N9" s="42">
+        <v>17851</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+    </row>
+    <row r="10" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36">
+        <v>17575</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="39">
+        <v>24</v>
+      </c>
+      <c r="N10" s="42">
+        <v>17862</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36">
+        <v>17614</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="39">
+        <v>25</v>
+      </c>
+      <c r="N11" s="42">
+        <v>17865</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="7"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+    </row>
+    <row r="12" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
+        <v>17687</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="39">
+        <v>26</v>
+      </c>
+      <c r="N12" s="42">
+        <v>17880</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+    </row>
+    <row r="13" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
+        <v>17719</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="39">
+        <v>27</v>
+      </c>
+      <c r="N13" s="47">
+        <v>17903</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+    </row>
+    <row r="14" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36">
+        <v>17725</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="39">
+        <v>28</v>
+      </c>
+      <c r="N14" s="42">
+        <v>17928</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="AC14" s="11"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35">
+        <v>17741</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="39">
+        <v>29</v>
+      </c>
+      <c r="N15" s="44">
+        <v>17953</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+    </row>
+    <row r="16" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35">
+        <v>17746</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="39">
+        <v>30</v>
+      </c>
+      <c r="N16" s="42">
+        <v>17965</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+    </row>
+    <row r="17" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36">
+        <v>17753</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="39">
+        <v>31</v>
+      </c>
+      <c r="N17" s="44">
+        <v>17985</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="1"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+    </row>
+    <row r="18" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35">
+        <v>17754</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="41"/>
+      <c r="P18" s="25"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="7"/>
+      <c r="W18"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+    </row>
+    <row r="19" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P19"/>
+      <c r="U19" s="25"/>
+      <c r="W19"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+    </row>
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P20"/>
+      <c r="U20" s="25"/>
+      <c r="W20"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P21"/>
+      <c r="U21" s="25"/>
+      <c r="W21"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+    </row>
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P22"/>
+      <c r="U22" s="25"/>
+      <c r="W22"/>
+      <c r="AF22" s="25"/>
+      <c r="AH22"/>
+    </row>
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P23"/>
+      <c r="U23" s="25"/>
+      <c r="W23"/>
+      <c r="AF23" s="25"/>
+      <c r="AH23"/>
+    </row>
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24"/>
+      <c r="U24" s="25"/>
+      <c r="W24"/>
+      <c r="AF24" s="25"/>
+      <c r="AH24"/>
+    </row>
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P25"/>
+      <c r="U25" s="25"/>
+      <c r="W25"/>
+      <c r="AF25" s="25"/>
+      <c r="AH25"/>
+    </row>
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P26"/>
+      <c r="U26" s="25"/>
+      <c r="W26"/>
+      <c r="AF26" s="25"/>
+      <c r="AH26"/>
+    </row>
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P27"/>
+      <c r="U27" s="25"/>
+      <c r="W27"/>
+      <c r="AF27" s="25"/>
+      <c r="AH27"/>
+    </row>
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P28"/>
+      <c r="U28" s="25"/>
+      <c r="W28"/>
+      <c r="AF28" s="25"/>
+      <c r="AH28"/>
+    </row>
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P29"/>
+      <c r="U29" s="25"/>
+      <c r="W29"/>
+      <c r="AF29" s="25"/>
+      <c r="AH29"/>
+    </row>
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P30"/>
+      <c r="U30" s="25"/>
+      <c r="W30"/>
+      <c r="AF30" s="25"/>
+      <c r="AH30"/>
+    </row>
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P31"/>
+      <c r="U31" s="25"/>
+      <c r="W31"/>
+      <c r="AF31" s="25"/>
+      <c r="AH31"/>
+    </row>
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P32"/>
+      <c r="U32" s="25"/>
+      <c r="W32"/>
+      <c r="AF32" s="25"/>
+      <c r="AH32"/>
+    </row>
+    <row r="33" spans="16:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P33"/>
+      <c r="U33" s="25"/>
+      <c r="W33"/>
+      <c r="AF33" s="25"/>
+      <c r="AH33"/>
+    </row>
+    <row r="34" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P34"/>
+      <c r="U34" s="25"/>
+      <c r="W34"/>
+      <c r="AF34" s="25"/>
+      <c r="AH34"/>
+    </row>
+    <row r="35" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P35"/>
+      <c r="U35" s="25"/>
+      <c r="W35"/>
+      <c r="X35" s="6"/>
+      <c r="AF35" s="25"/>
+      <c r="AH35"/>
+    </row>
+    <row r="36" spans="16:34" x14ac:dyDescent="0.15">
+      <c r="P36"/>
+      <c r="U36" s="25"/>
+      <c r="W36"/>
+      <c r="X36" s="6"/>
+      <c r="AF36" s="25"/>
+      <c r="AH36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
@@ -6886,10 +8073,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6910,16 +8097,35 @@
     <col min="23" max="45" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="L1" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>145</v>
       </c>
@@ -6928,7 +8134,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -6942,7 +8148,9 @@
         <v>233</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="10">
@@ -6960,7 +8168,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -6971,7 +8179,9 @@
         <v>26</v>
       </c>
       <c r="D4" s="26"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6988,11 +8198,13 @@
         <v>229</v>
       </c>
       <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="N4" s="26" t="s">
+        <v>267</v>
+      </c>
       <c r="O4" s="26"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -7022,7 +8234,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -7049,7 +8261,7 @@
       <c r="N6" s="27"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -7063,7 +8275,9 @@
         <v>230</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="G7" s="26"/>
       <c r="H7" s="7"/>
       <c r="I7" s="10">
@@ -7081,7 +8295,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -7092,8 +8306,12 @@
         <v>62</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="10">
@@ -7111,7 +8329,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -7122,7 +8340,9 @@
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -7136,12 +8356,14 @@
         <v>20</v>
       </c>
       <c r="L9" s="30"/>
-      <c r="M9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>252</v>
+      </c>
       <c r="N9" s="27"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -7152,7 +8374,9 @@
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -7171,7 +8395,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -7182,7 +8406,9 @@
         <v>7</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -7201,7 +8427,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -7231,7 +8457,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -7261,7 +8487,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -7275,7 +8501,9 @@
         <v>231</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="50" t="s">
+        <v>266</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="7"/>
       <c r="I14" s="10">
@@ -7293,7 +8521,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -7305,7 +8533,9 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="26" t="s">
+        <v>265</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
       <c r="I15" s="10">
@@ -7318,12 +8548,14 @@
         <v>25</v>
       </c>
       <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="M15" s="26" t="s">
+        <v>257</v>
+      </c>
       <c r="N15" s="27"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -7364,7 +8596,9 @@
         <v>14</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="26" t="s">
+        <v>253</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -7394,8 +8628,12 @@
         <v>13</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>263</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="10">
@@ -7462,9 +8700,9 @@
   </sheetPr>
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7498,8 +8736,12 @@
       <c r="D1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="E1" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="G1" s="52"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
@@ -7571,7 +8813,9 @@
         <v>29</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="49"/>
       <c r="H3" s="7"/>
@@ -7616,7 +8860,9 @@
       <c r="D4" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="19"/>
       <c r="H4" s="7"/>
@@ -8134,7 +9380,9 @@
         <v>236</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="7"/>
@@ -8379,4 +9627,601 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView topLeftCell="H10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="45" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="L1" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17311</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>17742</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17743</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17511</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17752</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17542</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>17794</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>17797</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17811</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17665</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17813</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17666</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>17822</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17668</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>17878</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17672</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>17883</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17688</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>17900</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17697</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17913</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17698</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13">
+        <v>17916</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17723</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>17937</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17728</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17942</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17729</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>17966</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17738</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17994</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:A19 I3:I19">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/卒業制作連絡/卒業制作留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="8685" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="8055" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AM10月" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="PM２月" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">AM2月!$A$1:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="0">AM10月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="4">AM12月!$L$3:$O$19</definedName>
     <definedName name="見出しの調整" localSheetId="6">AM１月!$L$3:$O$19</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="336">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -2214,12 +2215,381 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上田</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠席</t>
+    <rPh sb="0" eb="2">
+      <t>ケッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル文字
+ffooter</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベトナムの地域ごと
+の紹介</t>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名→商品メニュー</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページタイトル
+を明確に</t>
+    <rPh sb="12" eb="14">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真ページ
+レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプションの位置</t>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h2の色、
+footer</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu
+テーブルスペース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイメージ
+height調整</t>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font-size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの流れ</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクボタン設置</t>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z-index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>linkbottunの位置
+フォントサイズ</t>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文
+○</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header　image
+○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「おすすめ」
+写真サイズ調整</t>
+    <rPh sb="7" eb="9">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイメージのheight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○
+タイトルの配置</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header height
+270px</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メニューページ」
+「おすすめ」テキスト一行の幅</t>
+    <rPh sb="20" eb="22">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真ページ説明文
+サイトタイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真のキャプション
+トップイメージのheight
+○</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイメージ
+height
+○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトアップページ
+トップイメージheight
+ページリンク切れ</t>
+    <rPh sb="30" eb="31">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ修正</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品文字と値段
+footer</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの位置
+○</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページリンク切れ</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ料理
+タイトル
+写真サイズ</t>
+    <rPh sb="4" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドリンクメニュー
+タイトル
+topimageサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューfont-size
+ヘッダーの高さ</t>
+    <rPh sb="19" eb="20">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site-title
+h2配色
+レイアウトバランス</t>
+    <rPh sb="13" eb="15">
+      <t>ハイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,8 +2671,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2351,6 +2756,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2366,7 +2795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2537,6 +2966,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3472,9 +3931,9 @@
   </sheetPr>
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3504,16 +3963,12 @@
     <col min="41" max="46" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>264</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="52"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
@@ -3523,25 +3978,25 @@
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
-      <c r="P1" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="51" t="s">
+      <c r="P1" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="53"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
@@ -3556,11 +4011,13 @@
       <c r="J2" s="25"/>
       <c r="L2" s="25"/>
       <c r="N2" s="41"/>
-      <c r="P2" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="34"/>
+      <c r="P2" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="25"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
@@ -3569,8 +4026,6 @@
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
@@ -3584,7 +4039,9 @@
       <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="49"/>
@@ -3602,16 +4059,19 @@
       <c r="O3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="P3" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="AC3" s="1"/>
+      <c r="W3"/>
+      <c r="AA3" s="1"/>
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
@@ -3625,7 +4085,9 @@
       <c r="C4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="19"/>
@@ -3643,15 +4105,16 @@
       <c r="O4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="19"/>
+      <c r="P4" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="26"/>
       <c r="U4" s="7"/>
       <c r="V4" s="26"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="26"/>
+      <c r="W4"/>
       <c r="AG4"/>
       <c r="AH4"/>
     </row>
@@ -3665,7 +4128,9 @@
       <c r="C5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>333</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3684,14 +4149,15 @@
         <v>46</v>
       </c>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="7"/>
       <c r="V5" s="26"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="26"/>
+      <c r="W5"/>
       <c r="AG5"/>
       <c r="AH5"/>
     </row>
@@ -3705,7 +4171,9 @@
       <c r="C6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3724,16 +4192,16 @@
         <v>47</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="Q6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="26"/>
-      <c r="AC6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="AA6" s="26"/>
       <c r="AG6"/>
       <c r="AH6"/>
     </row>
@@ -3747,7 +4215,9 @@
       <c r="C7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3765,16 +4235,19 @@
       <c r="O7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="P7" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="7"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="11"/>
-      <c r="AC7" s="11"/>
+      <c r="W7"/>
+      <c r="AA7" s="11"/>
       <c r="AG7"/>
       <c r="AH7"/>
     </row>
@@ -3788,7 +4261,9 @@
       <c r="C8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>335</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -3807,15 +4282,16 @@
         <v>49</v>
       </c>
       <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="Q8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="AC8" s="1"/>
+      <c r="W8"/>
+      <c r="AA8" s="1"/>
       <c r="AG8"/>
       <c r="AH8"/>
     </row>
@@ -3829,7 +4305,9 @@
       <c r="C9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3847,15 +4325,16 @@
       <c r="O9" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="W9"/>
       <c r="AG9"/>
       <c r="AH9"/>
     </row>
@@ -3869,7 +4348,9 @@
       <c r="C10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3888,16 +4369,16 @@
         <v>205</v>
       </c>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="Q10" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="26"/>
-      <c r="AC10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="AA10" s="26"/>
       <c r="AG10"/>
       <c r="AH10"/>
     </row>
@@ -3911,7 +4392,9 @@
       <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3929,15 +4412,18 @@
       <c r="O11" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="11"/>
+      <c r="P11" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="26"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="7"/>
+      <c r="W11"/>
       <c r="AG11"/>
       <c r="AH11"/>
     </row>
@@ -3951,7 +4437,9 @@
       <c r="C12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3970,14 +4458,15 @@
         <v>207</v>
       </c>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="W12"/>
       <c r="AG12"/>
       <c r="AH12"/>
     </row>
@@ -3991,7 +4480,9 @@
       <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4009,13 +4500,15 @@
       <c r="O13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="17"/>
+      <c r="P13" s="60" t="s">
+        <v>285</v>
+      </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -4026,8 +4519,8 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
     </row>
     <row r="14" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
@@ -4039,7 +4532,9 @@
       <c r="C14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4057,16 +4552,17 @@
       <c r="O14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="P14" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="AC14" s="11"/>
+      <c r="W14"/>
+      <c r="AA14" s="11"/>
       <c r="AG14"/>
       <c r="AH14"/>
     </row>
@@ -4080,7 +4576,9 @@
       <c r="C15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -4098,15 +4596,18 @@
       <c r="O15" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="P15" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="W15"/>
       <c r="AG15"/>
       <c r="AH15"/>
     </row>
@@ -4120,7 +4621,9 @@
       <c r="C16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4140,14 +4643,12 @@
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="26"/>
+      <c r="W16" s="26"/>
       <c r="AG16"/>
       <c r="AH16"/>
     </row>
@@ -4161,7 +4662,9 @@
       <c r="C17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -4179,16 +4682,16 @@
       <c r="O17" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="1"/>
+      <c r="W17" s="1"/>
       <c r="AG17"/>
       <c r="AH17"/>
     </row>
@@ -4202,7 +4705,9 @@
       <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>307</v>
+      </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="11"/>
@@ -4211,16 +4716,16 @@
       <c r="K18" s="7"/>
       <c r="L18" s="11"/>
       <c r="N18" s="41"/>
-      <c r="P18" s="25"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="7"/>
+      <c r="P18"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="7"/>
-      <c r="W18"/>
+      <c r="U18" s="7"/>
+      <c r="V18"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="AB18" s="7"/>
+      <c r="AA18" s="7"/>
       <c r="AG18"/>
       <c r="AH18"/>
     </row>
@@ -9636,8 +10141,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="J13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9662,12 +10167,16 @@
       <c r="D1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="L1" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="54"/>
+      <c r="M1" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="N1" s="54"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9714,7 +10223,9 @@
         <v>59</v>
       </c>
       <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="M3" s="26" t="s">
+        <v>291</v>
+      </c>
       <c r="N3" s="27"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -9732,7 +10243,7 @@
       <c r="D4" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -9746,7 +10257,9 @@
         <v>78</v>
       </c>
       <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>323</v>
+      </c>
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
       <c r="P4" s="7"/>
@@ -9778,7 +10291,9 @@
         <v>16</v>
       </c>
       <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="M5" s="26" t="s">
+        <v>321</v>
+      </c>
       <c r="N5" s="32"/>
       <c r="O5" s="11"/>
       <c r="P5" s="7"/>
@@ -9796,7 +10311,9 @@
       <c r="D6" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="11" t="s">
+        <v>316</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="10">
         <v>21</v>
@@ -9808,7 +10325,9 @@
         <v>17</v>
       </c>
       <c r="L6" s="30"/>
-      <c r="M6" s="27"/>
+      <c r="M6" s="26" t="s">
+        <v>322</v>
+      </c>
       <c r="N6" s="27"/>
       <c r="P6" s="7"/>
     </row>
@@ -9825,7 +10344,9 @@
       <c r="D7" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="26"/>
       <c r="H7" s="7"/>
@@ -9839,7 +10360,9 @@
         <v>19</v>
       </c>
       <c r="L7" s="30"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>292</v>
+      </c>
       <c r="N7" s="27"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -9855,7 +10378,9 @@
         <v>62</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>317</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9869,7 +10394,9 @@
         <v>18</v>
       </c>
       <c r="L8" s="30"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="26" t="s">
+        <v>324</v>
+      </c>
       <c r="N8" s="27"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -9885,7 +10412,9 @@
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="64" t="s">
+        <v>317</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9899,7 +10428,9 @@
         <v>20</v>
       </c>
       <c r="L9" s="30"/>
-      <c r="M9" s="27"/>
+      <c r="M9" s="26" t="s">
+        <v>293</v>
+      </c>
       <c r="N9" s="27"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -9917,7 +10448,7 @@
       <c r="D10" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9931,7 +10462,9 @@
         <v>21</v>
       </c>
       <c r="L10" s="30"/>
-      <c r="M10" s="27"/>
+      <c r="M10" s="26" t="s">
+        <v>325</v>
+      </c>
       <c r="N10" s="32"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -9963,7 +10496,9 @@
         <v>22</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="M11" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="N11" s="26"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -9979,7 +10514,9 @@
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9993,7 +10530,9 @@
         <v>27</v>
       </c>
       <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
+      <c r="M12" s="65" t="s">
+        <v>294</v>
+      </c>
       <c r="N12" s="26"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -10025,7 +10564,9 @@
         <v>23</v>
       </c>
       <c r="L13" s="30"/>
-      <c r="M13" s="27"/>
+      <c r="M13" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="N13" s="27"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -10055,7 +10596,9 @@
         <v>24</v>
       </c>
       <c r="L14" s="30"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="26" t="s">
+        <v>327</v>
+      </c>
       <c r="N14" s="27"/>
       <c r="O14" s="26"/>
       <c r="P14" s="7"/>
@@ -10073,7 +10616,9 @@
       <c r="D15" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F15" s="26"/>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
@@ -10087,7 +10632,9 @@
         <v>25</v>
       </c>
       <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="M15" s="26" t="s">
+        <v>328</v>
+      </c>
       <c r="N15" s="27"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -10103,7 +10650,9 @@
         <v>12</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="11" t="s">
+        <v>319</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
@@ -10117,7 +10666,9 @@
         <v>60</v>
       </c>
       <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="26" t="s">
+        <v>329</v>
+      </c>
       <c r="N16" s="27"/>
       <c r="O16" s="11"/>
       <c r="P16" s="7"/>
@@ -10133,7 +10684,9 @@
         <v>14</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="61" t="s">
+        <v>289</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -10147,7 +10700,9 @@
         <v>1</v>
       </c>
       <c r="L17" s="32"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="27" t="s">
+        <v>330</v>
+      </c>
       <c r="N17" s="27"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -10165,7 +10720,9 @@
       <c r="D18" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="62" t="s">
+        <v>290</v>
+      </c>
       <c r="F18" s="56"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -10179,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="26"/>
-      <c r="M18" s="32"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="32"/>
       <c r="O18" s="11"/>
       <c r="P18" s="7"/>
@@ -10195,7 +10752,9 @@
         <v>15</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="11" t="s">
+        <v>320</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -10209,7 +10768,9 @@
         <v>61</v>
       </c>
       <c r="L19" s="32"/>
-      <c r="M19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>295</v>
+      </c>
       <c r="N19" s="26"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -10222,6 +10783,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>